--- a/data/en-us/events.xlsx
+++ b/data/en-us/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B80210-D4A5-4B05-BAFB-69CC2C6BEF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA705D-6F08-45F6-8686-EDFB4EBB18E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9866,9 +9866,6 @@
   </si>
   <si>
     <t>EVT?[11423]</t>
-  </si>
-  <si>
-    <t>专家表示可能与报道犯罪的新闻过多有关。</t>
   </si>
   <si>
     <t>但你感觉平台内的环境一下子乌烟瘴气起来，你很怀念两年前的样子。</t>
@@ -12540,6 +12537,9 @@
   <si>
     <t>【绝密消息】现在BUG很多，希望大家遇到了BUG可以通知我们。BUG及意见收集Q群：750452276</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10439]</t>
   </si>
 </sst>
 </file>
@@ -13141,10 +13141,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C1696" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B965" sqref="B965"/>
+      <selection pane="bottomRight" activeCell="G1653" sqref="G1653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13173,7 +13173,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -13194,10 +13194,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>3416</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>3417</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3418</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
@@ -13209,10 +13209,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>11</v>
@@ -13226,7 +13226,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -13250,7 +13250,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
@@ -13265,7 +13265,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>25</v>
@@ -13295,13 +13295,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="19" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -13309,7 +13309,7 @@
         <v>20000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -13338,7 +13338,7 @@
         <v>20002</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -13351,11 +13351,11 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="19" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="20"/>
@@ -13365,7 +13365,7 @@
         <v>20001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C6" s="15">
         <v>3</v>
@@ -13467,7 +13467,7 @@
         <v>33</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="20" t="s">
@@ -13779,7 +13779,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -13837,7 +13837,7 @@
         <v>60</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
@@ -13901,7 +13901,7 @@
         <v>69</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>70</v>
@@ -13936,7 +13936,7 @@
         <v>69</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>72</v>
@@ -14844,7 +14844,7 @@
         <v>60</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>124</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="O106" s="19"/>
       <c r="P106" s="19" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="Q106" s="20" t="s">
         <v>287</v>
@@ -16358,7 +16358,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="19"/>
       <c r="P107" s="19" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="Q107" s="20" t="s">
         <v>287</v>
@@ -18395,7 +18395,7 @@
         <v>10155</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="16"/>
@@ -20019,7 +20019,7 @@
         <v>599</v>
       </c>
       <c r="N234" s="18" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="O234" s="19"/>
       <c r="P234" s="19"/>
@@ -20045,10 +20045,10 @@
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
       <c r="M235" s="18" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="O235" s="19"/>
       <c r="P235" s="19"/>
@@ -20077,7 +20077,7 @@
         <v>612</v>
       </c>
       <c r="N236" s="18" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="O236" s="19"/>
       <c r="P236" s="19"/>
@@ -20135,10 +20135,10 @@
       <c r="N238" s="18"/>
       <c r="O238" s="19"/>
       <c r="P238" s="19" t="s">
+        <v>3753</v>
+      </c>
+      <c r="Q238" s="20" t="s">
         <v>3754</v>
-      </c>
-      <c r="Q238" s="20" t="s">
-        <v>3755</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20146,7 +20146,7 @@
         <v>10214</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="16"/>
@@ -20222,10 +20222,10 @@
       <c r="N241" s="18"/>
       <c r="O241" s="19"/>
       <c r="P241" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q241" s="20" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20440,7 +20440,7 @@
       <c r="K248" s="17"/>
       <c r="L248" s="17"/>
       <c r="M248" s="18" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="N248" s="18" t="s">
         <v>638</v>
@@ -20646,7 +20646,7 @@
         <v>656</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="O255" s="19"/>
       <c r="P255" s="19"/>
@@ -20675,7 +20675,7 @@
         <v>658</v>
       </c>
       <c r="N256" s="18" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="O256" s="19" t="s">
         <v>659</v>
@@ -20793,7 +20793,7 @@
         <v>668</v>
       </c>
       <c r="N260" s="18" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="O260" s="19"/>
       <c r="P260" s="19"/>
@@ -20849,7 +20849,7 @@
         <v>60</v>
       </c>
       <c r="N262" s="21" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="O262" s="19"/>
       <c r="P262" s="19"/>
@@ -21100,7 +21100,7 @@
         <v>695</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="O271" s="19"/>
       <c r="P271" s="19"/>
@@ -21129,7 +21129,7 @@
         <v>697</v>
       </c>
       <c r="N272" s="18" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="O272" s="19"/>
       <c r="P272" s="19"/>
@@ -21224,10 +21224,10 @@
       </c>
       <c r="O275" s="19"/>
       <c r="P275" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q275" s="20" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21732,10 +21732,10 @@
       </c>
       <c r="O293" s="19"/>
       <c r="P293" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q293" s="20" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22103,7 +22103,7 @@
         <v>752</v>
       </c>
       <c r="N306" s="18" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="O306" s="19"/>
       <c r="P306" s="19"/>
@@ -22132,7 +22132,7 @@
         <v>782</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="O307" s="19"/>
       <c r="P307" s="19"/>
@@ -22161,7 +22161,7 @@
         <v>784</v>
       </c>
       <c r="N308" s="18" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="O308" s="19"/>
       <c r="P308" s="19"/>
@@ -22388,13 +22388,13 @@
         <v>801</v>
       </c>
       <c r="O316" s="19" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="P316" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q316" s="20" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22421,7 +22421,7 @@
         <v>803</v>
       </c>
       <c r="O317" s="19" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="P317" s="19"/>
       <c r="Q317" s="20"/>
@@ -22536,10 +22536,10 @@
         <v>809</v>
       </c>
       <c r="N321" s="18" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="O321" s="19" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="P321" s="19"/>
       <c r="Q321" s="20"/>
@@ -23452,13 +23452,13 @@
         <v>20323</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="C353" s="15">
         <v>2</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="E353" s="17"/>
       <c r="F353" s="17"/>
@@ -23474,7 +23474,7 @@
         <v>886</v>
       </c>
       <c r="N353" s="18" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="O353" s="19"/>
       <c r="P353" s="19"/>
@@ -23764,13 +23764,13 @@
         <v>20332</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="C363" s="15">
         <v>1</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -23786,10 +23786,10 @@
         <v>886</v>
       </c>
       <c r="N363" s="18" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="O363" s="19" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="P363" s="19"/>
       <c r="Q363" s="20"/>
@@ -23799,7 +23799,7 @@
         <v>20333</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="C364" s="15">
         <v>2</v>
@@ -23818,10 +23818,10 @@
       <c r="K364" s="17"/>
       <c r="L364" s="17"/>
       <c r="M364" s="18" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="N364" s="18" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="O364" s="19"/>
       <c r="P364" s="19"/>
@@ -23832,11 +23832,11 @@
         <v>20334</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="C365" s="15"/>
       <c r="D365" s="16" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -23847,13 +23847,13 @@
       <c r="K365" s="17"/>
       <c r="L365" s="17"/>
       <c r="M365" s="18" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="N365" s="18" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="O365" s="19" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="P365" s="19"/>
       <c r="Q365" s="20"/>
@@ -23863,7 +23863,7 @@
         <v>20335</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="C366" s="15">
         <v>1</v>
@@ -23890,11 +23890,11 @@
         <v>20336</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="C367" s="15"/>
       <c r="D367" s="16" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -23905,17 +23905,17 @@
       <c r="K367" s="17"/>
       <c r="L367" s="17"/>
       <c r="M367" s="18" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="N367" s="18" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="O367" s="19" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="P367" s="19"/>
       <c r="Q367" s="20" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="368" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23923,7 +23923,7 @@
         <v>20337</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="C368" s="15">
         <v>1</v>
@@ -23954,7 +23954,7 @@
         <v>20338</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="C369" s="15"/>
       <c r="D369" s="16"/>
@@ -23969,10 +23969,10 @@
       <c r="K369" s="17"/>
       <c r="L369" s="17"/>
       <c r="M369" s="18" t="s">
+        <v>3514</v>
+      </c>
+      <c r="N369" s="18" t="s">
         <v>3515</v>
-      </c>
-      <c r="N369" s="18" t="s">
-        <v>3516</v>
       </c>
       <c r="O369" s="19"/>
       <c r="P369" s="19"/>
@@ -23983,7 +23983,7 @@
         <v>20339</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="C370" s="15"/>
       <c r="D370" s="16"/>
@@ -23996,10 +23996,10 @@
       <c r="K370" s="17"/>
       <c r="L370" s="17"/>
       <c r="M370" s="18" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="N370" s="18" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="O370" s="19"/>
       <c r="P370" s="19"/>
@@ -24010,7 +24010,7 @@
         <v>20340</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="C371" s="15"/>
       <c r="D371" s="16"/>
@@ -24025,13 +24025,13 @@
       <c r="K371" s="17"/>
       <c r="L371" s="17"/>
       <c r="M371" s="18" t="s">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="N371" s="18" t="s">
+        <v>3378</v>
+      </c>
+      <c r="O371" s="19" t="s">
         <v>3379</v>
-      </c>
-      <c r="O371" s="19" t="s">
-        <v>3380</v>
       </c>
       <c r="P371" s="19"/>
       <c r="Q371" s="20"/>
@@ -24041,7 +24041,7 @@
         <v>20341</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C372" s="15"/>
       <c r="D372" s="16"/>
@@ -24066,7 +24066,7 @@
         <v>20342</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="C373" s="15"/>
       <c r="D373" s="16"/>
@@ -24079,17 +24079,17 @@
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
       <c r="M373" s="18" t="s">
+        <v>3382</v>
+      </c>
+      <c r="N373" s="18" t="s">
         <v>3383</v>
       </c>
-      <c r="N373" s="18" t="s">
-        <v>3384</v>
-      </c>
       <c r="O373" s="19" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="P373" s="19"/>
       <c r="Q373" s="20" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="374" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24097,7 +24097,7 @@
         <v>20343</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="C374" s="15">
         <v>1</v>
@@ -24118,7 +24118,7 @@
       <c r="M374" s="18"/>
       <c r="N374" s="18"/>
       <c r="O374" s="19" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="P374" s="19"/>
       <c r="Q374" s="20"/>
@@ -24128,7 +24128,7 @@
         <v>20349</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="C375" s="15">
         <v>2</v>
@@ -24157,11 +24157,11 @@
         <v>20344</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="C376" s="15"/>
       <c r="D376" s="16" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -24172,13 +24172,13 @@
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
       <c r="M376" s="18" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="N376" s="18" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="O376" s="19" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="P376" s="19"/>
       <c r="Q376" s="20"/>
@@ -24188,7 +24188,7 @@
         <v>20345</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C377" s="15">
         <v>1</v>
@@ -24221,11 +24221,11 @@
         <v>20346</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C378" s="15"/>
       <c r="D378" s="16" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -24236,17 +24236,17 @@
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
       <c r="M378" s="18" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="N378" s="18" t="s">
+        <v>3395</v>
+      </c>
+      <c r="O378" s="19" t="s">
         <v>3396</v>
-      </c>
-      <c r="O378" s="19" t="s">
-        <v>3397</v>
       </c>
       <c r="P378" s="19"/>
       <c r="Q378" s="20" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="379" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24254,7 +24254,7 @@
         <v>20347</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="C379" s="15">
         <v>1</v>
@@ -24287,7 +24287,7 @@
         <v>20348</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="C380" s="15">
         <v>2</v>
@@ -24727,13 +24727,13 @@
         <v>40001</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="C394" s="15">
         <v>3</v>
       </c>
       <c r="D394" s="16" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="E394" s="17">
         <v>5</v>
@@ -24752,10 +24752,10 @@
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
       <c r="M394" s="18" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="N394" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="O394" s="19"/>
       <c r="P394" s="19"/>
@@ -24766,7 +24766,7 @@
         <v>40002</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="C395" s="15"/>
       <c r="D395" s="16"/>
@@ -24781,10 +24781,10 @@
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
       <c r="M395" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N395" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="O395" s="19"/>
       <c r="P395" s="19"/>
@@ -24795,7 +24795,7 @@
         <v>40003</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="C396" s="15">
         <v>1</v>
@@ -24812,10 +24812,10 @@
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
       <c r="M396" s="18" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="N396" s="18" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="O396" s="19"/>
       <c r="P396" s="19"/>
@@ -24826,7 +24826,7 @@
         <v>40004</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C397" s="15">
         <v>1</v>
@@ -24843,10 +24843,10 @@
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
       <c r="M397" s="18" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="N397" s="18" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="O397" s="19"/>
       <c r="P397" s="19"/>
@@ -24857,7 +24857,7 @@
         <v>40005</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C398" s="15">
         <v>1</v>
@@ -24874,10 +24874,10 @@
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
       <c r="M398" s="18" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="N398" s="18" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="O398" s="19"/>
       <c r="P398" s="19"/>
@@ -24888,7 +24888,7 @@
         <v>40006</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="C399" s="15">
         <v>1</v>
@@ -24905,10 +24905,10 @@
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
       <c r="M399" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N399" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="O399" s="19"/>
       <c r="P399" s="19"/>
@@ -24919,7 +24919,7 @@
         <v>40007</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="C400" s="15"/>
       <c r="D400" s="16"/>
@@ -24934,10 +24934,10 @@
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
       <c r="M400" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N400" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="O400" s="19"/>
       <c r="P400" s="19"/>
@@ -24948,7 +24948,7 @@
         <v>40008</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="C401" s="15"/>
       <c r="D401" s="16"/>
@@ -24965,10 +24965,10 @@
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
       <c r="M401" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="O401" s="19"/>
       <c r="P401" s="19"/>
@@ -24979,7 +24979,7 @@
         <v>40009</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="C402" s="15">
         <v>1</v>
@@ -24998,10 +24998,10 @@
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
       <c r="M402" s="18" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="N402" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="O402" s="19"/>
       <c r="P402" s="19"/>
@@ -25012,13 +25012,13 @@
         <v>40010</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="C403" s="15">
         <v>2</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="E403" s="17"/>
       <c r="F403" s="17"/>
@@ -25031,10 +25031,10 @@
       <c r="K403" s="17"/>
       <c r="L403" s="17"/>
       <c r="M403" s="18" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="N403" s="18" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="O403" s="19"/>
       <c r="P403" s="19"/>
@@ -25045,7 +25045,7 @@
         <v>40011</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="C404" s="15"/>
       <c r="D404" s="16"/>
@@ -25060,10 +25060,10 @@
       <c r="K404" s="17"/>
       <c r="L404" s="17"/>
       <c r="M404" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N404" s="18" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="O404" s="19"/>
       <c r="P404" s="19"/>
@@ -25074,7 +25074,7 @@
         <v>40012</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="C405" s="15">
         <v>1</v>
@@ -25091,10 +25091,10 @@
       <c r="K405" s="17"/>
       <c r="L405" s="17"/>
       <c r="M405" s="18" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="N405" s="18" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="O405" s="19"/>
       <c r="P405" s="19"/>
@@ -25105,7 +25105,7 @@
         <v>40013</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="C406" s="15">
         <v>1</v>
@@ -25122,10 +25122,10 @@
       <c r="K406" s="17"/>
       <c r="L406" s="17"/>
       <c r="M406" s="18" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="N406" s="18" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="O406" s="19"/>
       <c r="P406" s="19"/>
@@ -25136,7 +25136,7 @@
         <v>40014</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="C407" s="15">
         <v>1</v>
@@ -25153,10 +25153,10 @@
       <c r="K407" s="17"/>
       <c r="L407" s="17"/>
       <c r="M407" s="18" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="N407" s="18" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="O407" s="19"/>
       <c r="P407" s="19"/>
@@ -25167,13 +25167,13 @@
         <v>40015</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="C408" s="15">
         <v>2</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="E408" s="17"/>
       <c r="F408" s="17">
@@ -25188,10 +25188,10 @@
       <c r="K408" s="17"/>
       <c r="L408" s="17"/>
       <c r="M408" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="O408" s="19"/>
       <c r="P408" s="19"/>
@@ -25202,7 +25202,7 @@
         <v>40016</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="C409" s="15">
         <v>2</v>
@@ -25217,10 +25217,10 @@
       <c r="K409" s="17"/>
       <c r="L409" s="17"/>
       <c r="M409" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N409" s="18" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="O409" s="19"/>
       <c r="P409" s="19"/>
@@ -25231,7 +25231,7 @@
         <v>40017</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="C410" s="15">
         <v>2</v>
@@ -25250,10 +25250,10 @@
       <c r="K410" s="17"/>
       <c r="L410" s="17"/>
       <c r="M410" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N410" s="18" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="O410" s="19"/>
       <c r="P410" s="19"/>
@@ -25264,7 +25264,7 @@
         <v>40018</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C411" s="15">
         <v>2</v>
@@ -25283,10 +25283,10 @@
       <c r="K411" s="17"/>
       <c r="L411" s="17"/>
       <c r="M411" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N411" s="18" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="O411" s="19"/>
       <c r="P411" s="19"/>
@@ -25297,7 +25297,7 @@
         <v>40019</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C412" s="15">
         <v>2</v>
@@ -25316,10 +25316,10 @@
       <c r="K412" s="17"/>
       <c r="L412" s="17"/>
       <c r="M412" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N412" s="18" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="O412" s="19"/>
       <c r="P412" s="19"/>
@@ -25330,7 +25330,7 @@
         <v>40020</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C413" s="15">
         <v>2</v>
@@ -25349,10 +25349,10 @@
       <c r="K413" s="17"/>
       <c r="L413" s="17"/>
       <c r="M413" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N413" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="O413" s="19"/>
       <c r="P413" s="19"/>
@@ -25363,7 +25363,7 @@
         <v>40021</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C414" s="15">
         <v>2</v>
@@ -25382,10 +25382,10 @@
       <c r="K414" s="17"/>
       <c r="L414" s="17"/>
       <c r="M414" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N414" s="18" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="O414" s="19"/>
       <c r="P414" s="19"/>
@@ -25396,7 +25396,7 @@
         <v>40022</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="C415" s="15">
         <v>2</v>
@@ -25413,10 +25413,10 @@
       <c r="K415" s="17"/>
       <c r="L415" s="17"/>
       <c r="M415" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N415" s="18" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="O415" s="19"/>
       <c r="P415" s="19"/>
@@ -25427,13 +25427,13 @@
         <v>40023</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="C416" s="15">
         <v>2</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E416" s="17"/>
       <c r="F416" s="17">
@@ -25448,10 +25448,10 @@
       <c r="K416" s="17"/>
       <c r="L416" s="17"/>
       <c r="M416" s="18" t="s">
+        <v>3644</v>
+      </c>
+      <c r="N416" s="18" t="s">
         <v>3645</v>
-      </c>
-      <c r="N416" s="18" t="s">
-        <v>3646</v>
       </c>
       <c r="O416" s="19"/>
       <c r="P416" s="19"/>
@@ -25462,7 +25462,7 @@
         <v>40024</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="C417" s="15"/>
       <c r="D417" s="16"/>
@@ -25479,10 +25479,10 @@
       <c r="K417" s="17"/>
       <c r="L417" s="17"/>
       <c r="M417" s="18" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="N417" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O417" s="19"/>
       <c r="P417" s="19"/>
@@ -25493,7 +25493,7 @@
         <v>40025</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="C418" s="15"/>
       <c r="D418" s="16"/>
@@ -25508,10 +25508,10 @@
       <c r="K418" s="17"/>
       <c r="L418" s="17"/>
       <c r="M418" s="18" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="N418" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O418" s="19"/>
       <c r="P418" s="19"/>
@@ -25522,13 +25522,13 @@
         <v>40026</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="C419" s="15">
         <v>1</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="E419" s="17"/>
       <c r="F419" s="17">
@@ -25543,10 +25543,10 @@
       <c r="K419" s="17"/>
       <c r="L419" s="17"/>
       <c r="M419" s="18" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="N419" s="18" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="O419" s="19"/>
       <c r="P419" s="19"/>
@@ -25557,13 +25557,13 @@
         <v>40027</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="C420" s="15">
         <v>1</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="E420" s="17"/>
       <c r="F420" s="17">
@@ -25578,10 +25578,10 @@
       <c r="K420" s="17"/>
       <c r="L420" s="17"/>
       <c r="M420" s="18" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="N420" s="18" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="O420" s="19"/>
       <c r="P420" s="19"/>
@@ -25592,13 +25592,13 @@
         <v>40028</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="C421" s="15">
         <v>1</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="E421" s="17"/>
       <c r="F421" s="17">
@@ -25613,10 +25613,10 @@
       <c r="K421" s="17"/>
       <c r="L421" s="17"/>
       <c r="M421" s="18" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="N421" s="18" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="O421" s="19"/>
       <c r="P421" s="19"/>
@@ -25627,7 +25627,7 @@
         <v>40029</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="C422" s="15">
         <v>2</v>
@@ -25646,10 +25646,10 @@
       <c r="K422" s="17"/>
       <c r="L422" s="17"/>
       <c r="M422" s="18" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="N422" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O422" s="19"/>
       <c r="P422" s="19"/>
@@ -25660,7 +25660,7 @@
         <v>40030</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="C423" s="15">
         <v>2</v>
@@ -25679,10 +25679,10 @@
       <c r="K423" s="17"/>
       <c r="L423" s="17"/>
       <c r="M423" s="18" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="N423" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="19"/>
@@ -25693,7 +25693,7 @@
         <v>40031</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="C424" s="15">
         <v>2</v>
@@ -25712,10 +25712,10 @@
       <c r="K424" s="17"/>
       <c r="L424" s="17"/>
       <c r="M424" s="18" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="N424" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O424" s="19"/>
       <c r="P424" s="19"/>
@@ -25726,7 +25726,7 @@
         <v>40032</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="C425" s="15">
         <v>2</v>
@@ -25743,10 +25743,10 @@
       <c r="K425" s="17"/>
       <c r="L425" s="17"/>
       <c r="M425" s="18" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="O425" s="19"/>
       <c r="P425" s="19"/>
@@ -25757,7 +25757,7 @@
         <v>40033</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="C426" s="15"/>
       <c r="D426" s="16"/>
@@ -25770,13 +25770,13 @@
       <c r="K426" s="17"/>
       <c r="L426" s="17"/>
       <c r="M426" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N426" s="18" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="O426" s="19" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="P426" s="19"/>
       <c r="Q426" s="20"/>
@@ -25805,10 +25805,10 @@
       <c r="K427" s="17"/>
       <c r="L427" s="17"/>
       <c r="M427" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="N427" s="18" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="O427" s="19"/>
       <c r="P427" s="19"/>
@@ -25838,10 +25838,10 @@
       <c r="K428" s="17"/>
       <c r="L428" s="17"/>
       <c r="M428" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="N428" s="18" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="O428" s="19"/>
       <c r="P428" s="19"/>
@@ -25871,10 +25871,10 @@
       <c r="K429" s="17"/>
       <c r="L429" s="17"/>
       <c r="M429" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="N429" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="19"/>
@@ -25904,10 +25904,10 @@
       <c r="K430" s="17"/>
       <c r="L430" s="17"/>
       <c r="M430" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="N430" s="18" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="O430" s="19"/>
       <c r="P430" s="19"/>
@@ -25937,10 +25937,10 @@
       <c r="K431" s="17"/>
       <c r="L431" s="17"/>
       <c r="M431" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="19"/>
@@ -25951,7 +25951,7 @@
         <v>40039</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C432" s="15"/>
       <c r="D432" s="16"/>
@@ -25968,13 +25968,13 @@
       <c r="K432" s="17"/>
       <c r="L432" s="17"/>
       <c r="M432" s="18" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="N432" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O432" s="19" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="P432" s="19"/>
       <c r="Q432" s="20"/>
@@ -25984,7 +25984,7 @@
         <v>40040</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="C433" s="15">
         <v>3</v>
@@ -26011,7 +26011,7 @@
         <v>40041</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="C434" s="15"/>
       <c r="D434" s="16"/>
@@ -26024,13 +26024,13 @@
       <c r="K434" s="17"/>
       <c r="L434" s="17"/>
       <c r="M434" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N434" s="18" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="O434" s="19" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="P434" s="19"/>
       <c r="Q434" s="20"/>
@@ -26040,7 +26040,7 @@
         <v>40042</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="C435" s="15"/>
       <c r="D435" s="16"/>
@@ -26053,10 +26053,10 @@
       <c r="K435" s="17"/>
       <c r="L435" s="17"/>
       <c r="M435" s="18" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="N435" s="18" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="O435" s="19"/>
       <c r="P435" s="19"/>
@@ -26067,7 +26067,7 @@
         <v>40043</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C436" s="15"/>
       <c r="D436" s="16"/>
@@ -26080,10 +26080,10 @@
       <c r="K436" s="17"/>
       <c r="L436" s="17"/>
       <c r="M436" s="18" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="N436" s="18" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O436" s="19"/>
       <c r="P436" s="19"/>
@@ -26094,7 +26094,7 @@
         <v>40044</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="C437" s="15"/>
       <c r="D437" s="16"/>
@@ -26107,10 +26107,10 @@
       <c r="K437" s="17"/>
       <c r="L437" s="17"/>
       <c r="M437" s="18" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O437" s="19"/>
       <c r="P437" s="19"/>
@@ -26121,7 +26121,7 @@
         <v>40045</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="C438" s="15"/>
       <c r="D438" s="16"/>
@@ -26134,10 +26134,10 @@
       <c r="K438" s="17"/>
       <c r="L438" s="17"/>
       <c r="M438" s="18" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O438" s="19"/>
       <c r="P438" s="19"/>
@@ -26148,11 +26148,11 @@
         <v>40046</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C439" s="15"/>
       <c r="D439" s="16" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="E439" s="17"/>
       <c r="F439" s="17"/>
@@ -26163,10 +26163,10 @@
       <c r="K439" s="17"/>
       <c r="L439" s="17"/>
       <c r="M439" s="18" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="N439" s="18" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O439" s="19"/>
       <c r="P439" s="19"/>
@@ -26177,13 +26177,13 @@
         <v>40047</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C440" s="15">
         <v>2</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="E440" s="17"/>
       <c r="F440" s="17"/>
@@ -26194,10 +26194,10 @@
       <c r="K440" s="17"/>
       <c r="L440" s="17"/>
       <c r="M440" s="18" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="N440" s="18" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="O440" s="19"/>
       <c r="P440" s="19"/>
@@ -26208,13 +26208,13 @@
         <v>40048</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C441" s="15">
         <v>2</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="E441" s="17"/>
       <c r="F441" s="17"/>
@@ -26225,10 +26225,10 @@
       <c r="K441" s="17"/>
       <c r="L441" s="17"/>
       <c r="M441" s="18" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="N441" s="18" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="O441" s="19"/>
       <c r="P441" s="19"/>
@@ -26239,13 +26239,13 @@
         <v>40049</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="C442" s="15">
         <v>3</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="E442" s="17"/>
       <c r="F442" s="17"/>
@@ -26256,10 +26256,10 @@
       <c r="K442" s="17"/>
       <c r="L442" s="17"/>
       <c r="M442" s="18" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="N442" s="18" t="s">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="O442" s="19"/>
       <c r="P442" s="19"/>
@@ -26270,13 +26270,13 @@
         <v>40050</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="C443" s="15">
         <v>3</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="E443" s="17"/>
       <c r="F443" s="17"/>
@@ -26289,7 +26289,7 @@
       <c r="K443" s="17"/>
       <c r="L443" s="17"/>
       <c r="M443" s="18" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="N443" s="18"/>
       <c r="O443" s="19"/>
@@ -26301,13 +26301,13 @@
         <v>40051</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="C444" s="15">
         <v>3</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="E444" s="17"/>
       <c r="F444" s="17"/>
@@ -26318,10 +26318,10 @@
       <c r="K444" s="17"/>
       <c r="L444" s="17"/>
       <c r="M444" s="18" t="s">
+        <v>3703</v>
+      </c>
+      <c r="N444" s="18" t="s">
         <v>3704</v>
-      </c>
-      <c r="N444" s="18" t="s">
-        <v>3705</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="19"/>
@@ -26332,13 +26332,13 @@
         <v>40052</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="C445" s="15">
         <v>3</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="E445" s="17"/>
       <c r="F445" s="17"/>
@@ -26349,10 +26349,10 @@
       <c r="K445" s="17"/>
       <c r="L445" s="17"/>
       <c r="M445" s="18" t="s">
+        <v>3709</v>
+      </c>
+      <c r="N445" s="18" t="s">
         <v>3710</v>
-      </c>
-      <c r="N445" s="18" t="s">
-        <v>3711</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="19"/>
@@ -26363,7 +26363,7 @@
         <v>40053</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="C446" s="15">
         <v>3</v>
@@ -26380,10 +26380,10 @@
       <c r="K446" s="17"/>
       <c r="L446" s="17"/>
       <c r="M446" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="N446" s="18" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="19"/>
@@ -26394,7 +26394,7 @@
         <v>40054</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="C447" s="15">
         <v>3</v>
@@ -26409,17 +26409,17 @@
       <c r="K447" s="17"/>
       <c r="L447" s="17"/>
       <c r="M447" s="18" t="s">
+        <v>3713</v>
+      </c>
+      <c r="N447" s="18" t="s">
         <v>3714</v>
       </c>
-      <c r="N447" s="18" t="s">
-        <v>3715</v>
-      </c>
       <c r="O447" s="19" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="P447" s="19"/>
       <c r="Q447" s="20" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="448" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26427,7 +26427,7 @@
         <v>40055</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="C448" s="15">
         <v>3</v>
@@ -26446,11 +26446,11 @@
       <c r="M448" s="18"/>
       <c r="N448" s="18"/>
       <c r="O448" s="19" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="P448" s="19"/>
       <c r="Q448" s="20" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="449" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26458,7 +26458,7 @@
         <v>40056</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C449" s="15">
         <v>3</v>
@@ -26477,11 +26477,11 @@
       <c r="M449" s="18"/>
       <c r="N449" s="18"/>
       <c r="O449" s="19" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="P449" s="19"/>
       <c r="Q449" s="20" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="450" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26489,7 +26489,7 @@
         <v>40057</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="C450" s="15">
         <v>3</v>
@@ -26508,7 +26508,7 @@
       <c r="M450" s="18"/>
       <c r="N450" s="18"/>
       <c r="O450" s="19" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="P450" s="19"/>
       <c r="Q450" s="20"/>
@@ -26518,7 +26518,7 @@
         <v>40058</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="C451" s="15">
         <v>3</v>
@@ -26555,7 +26555,7 @@
         <v>40059</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C452" s="15">
         <v>3</v>
@@ -26572,7 +26572,7 @@
       <c r="K452" s="17"/>
       <c r="L452" s="17"/>
       <c r="M452" s="18" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="N452" s="18"/>
       <c r="O452" s="19"/>
@@ -26584,13 +26584,13 @@
         <v>40060</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="C453" s="15">
         <v>1</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="E453" s="17"/>
       <c r="F453" s="17"/>
@@ -26601,10 +26601,10 @@
       <c r="K453" s="17"/>
       <c r="L453" s="17"/>
       <c r="M453" s="18" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="N453" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="O453" s="19"/>
       <c r="P453" s="19"/>
@@ -26615,13 +26615,13 @@
         <v>40061</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="C454" s="15">
         <v>3</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="E454" s="17">
         <v>2</v>
@@ -26638,10 +26638,10 @@
       <c r="K454" s="17"/>
       <c r="L454" s="17"/>
       <c r="M454" s="18" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="N454" s="18" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="O454" s="19"/>
       <c r="P454" s="19"/>
@@ -26652,7 +26652,7 @@
         <v>40062</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="C455" s="15">
         <v>3</v>
@@ -26673,10 +26673,10 @@
       <c r="M455" s="18"/>
       <c r="N455" s="18"/>
       <c r="O455" s="19" t="s">
+        <v>3764</v>
+      </c>
+      <c r="P455" s="19" t="s">
         <v>3765</v>
-      </c>
-      <c r="P455" s="19" t="s">
-        <v>3766</v>
       </c>
       <c r="Q455" s="20"/>
     </row>
@@ -26685,7 +26685,7 @@
         <v>40063</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C456" s="15">
         <v>3</v>
@@ -26714,11 +26714,11 @@
         <v>40064</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="C457" s="15"/>
       <c r="D457" s="16" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="E457" s="17"/>
       <c r="F457" s="17"/>
@@ -26743,7 +26743,7 @@
         <v>40065</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C458" s="15"/>
       <c r="D458" s="16"/>
@@ -26756,7 +26756,7 @@
       <c r="K458" s="17"/>
       <c r="L458" s="17"/>
       <c r="M458" s="18" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="N458" s="18"/>
       <c r="O458" s="19"/>
@@ -26768,7 +26768,7 @@
         <v>40066</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="C459" s="15"/>
       <c r="D459" s="16"/>
@@ -26781,10 +26781,10 @@
       <c r="K459" s="17"/>
       <c r="L459" s="17"/>
       <c r="M459" s="18" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="N459" s="18" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="O459" s="19"/>
       <c r="P459" s="19"/>
@@ -26795,7 +26795,7 @@
         <v>40067</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C460" s="15"/>
       <c r="D460" s="16"/>
@@ -26808,7 +26808,7 @@
       <c r="K460" s="17"/>
       <c r="L460" s="17"/>
       <c r="M460" s="18" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="N460" s="18"/>
       <c r="O460" s="19"/>
@@ -26820,7 +26820,7 @@
         <v>40068</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C461" s="15"/>
       <c r="D461" s="16"/>
@@ -26833,7 +26833,7 @@
       <c r="K461" s="17"/>
       <c r="L461" s="17"/>
       <c r="M461" s="18" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="N461" s="18"/>
       <c r="O461" s="19"/>
@@ -26845,7 +26845,7 @@
         <v>40069</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C462" s="15"/>
       <c r="D462" s="16"/>
@@ -26858,7 +26858,7 @@
       <c r="K462" s="17"/>
       <c r="L462" s="17"/>
       <c r="M462" s="18" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="N462" s="18"/>
       <c r="O462" s="19"/>
@@ -26870,7 +26870,7 @@
         <v>40070</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C463" s="15"/>
       <c r="D463" s="16"/>
@@ -26883,11 +26883,11 @@
       <c r="K463" s="17"/>
       <c r="L463" s="17"/>
       <c r="M463" s="18" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="N463" s="18"/>
       <c r="O463" s="19" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="P463" s="19"/>
       <c r="Q463" s="20"/>
@@ -26897,7 +26897,7 @@
         <v>40071</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C464" s="15"/>
       <c r="D464" s="16"/>
@@ -26910,11 +26910,11 @@
       <c r="K464" s="17"/>
       <c r="L464" s="17"/>
       <c r="M464" s="18" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="N464" s="18"/>
       <c r="O464" s="19" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="P464" s="19"/>
       <c r="Q464" s="20"/>
@@ -26924,7 +26924,7 @@
         <v>40072</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="C465" s="15"/>
       <c r="D465" s="16"/>
@@ -26937,11 +26937,11 @@
       <c r="K465" s="17"/>
       <c r="L465" s="17"/>
       <c r="M465" s="18" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="N465" s="18"/>
       <c r="O465" s="19" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="P465" s="19"/>
       <c r="Q465" s="20"/>
@@ -26951,7 +26951,7 @@
         <v>40073</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C466" s="15"/>
       <c r="D466" s="16"/>
@@ -26968,10 +26968,10 @@
       <c r="K466" s="17"/>
       <c r="L466" s="17"/>
       <c r="M466" s="18" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="N466" s="18" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="O466" s="19"/>
       <c r="P466" s="19"/>
@@ -26982,7 +26982,7 @@
         <v>40074</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="C467" s="15"/>
       <c r="D467" s="16"/>
@@ -26997,10 +26997,10 @@
       <c r="K467" s="17"/>
       <c r="L467" s="17"/>
       <c r="M467" s="18" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="N467" s="18" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="O467" s="19"/>
       <c r="P467" s="19"/>
@@ -27011,7 +27011,7 @@
         <v>40075</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C468" s="15">
         <v>2</v>
@@ -27026,10 +27026,10 @@
       <c r="K468" s="17"/>
       <c r="L468" s="17"/>
       <c r="M468" s="18" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="N468" s="18" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="O468" s="19"/>
       <c r="P468" s="19"/>
@@ -27040,7 +27040,7 @@
         <v>40076</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="C469" s="15"/>
       <c r="D469" s="16"/>
@@ -27055,10 +27055,10 @@
       <c r="K469" s="17"/>
       <c r="L469" s="17"/>
       <c r="M469" s="18" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="N469" s="18" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="O469" s="19"/>
       <c r="P469" s="19"/>
@@ -27069,7 +27069,7 @@
         <v>40077</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="C470" s="15"/>
       <c r="D470" s="16"/>
@@ -27086,10 +27086,10 @@
       <c r="K470" s="17"/>
       <c r="L470" s="17"/>
       <c r="M470" s="18" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="N470" s="18" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="O470" s="19"/>
       <c r="P470" s="19"/>
@@ -27100,13 +27100,13 @@
         <v>40078</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="C471" s="15">
         <v>2</v>
       </c>
       <c r="D471" s="16" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E471" s="17"/>
       <c r="F471" s="17"/>
@@ -27117,10 +27117,10 @@
       <c r="K471" s="17"/>
       <c r="L471" s="17"/>
       <c r="M471" s="18" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="N471" s="18" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="O471" s="19"/>
       <c r="P471" s="19"/>
@@ -27131,7 +27131,7 @@
         <v>40079</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="C472" s="15"/>
       <c r="D472" s="16"/>
@@ -27144,10 +27144,10 @@
       <c r="K472" s="17"/>
       <c r="L472" s="17"/>
       <c r="M472" s="18" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="N472" s="18" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="O472" s="19"/>
       <c r="P472" s="19"/>
@@ -27158,7 +27158,7 @@
         <v>40080</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="C473" s="15"/>
       <c r="D473" s="16"/>
@@ -27171,13 +27171,13 @@
       <c r="K473" s="17"/>
       <c r="L473" s="17"/>
       <c r="M473" s="18" t="s">
+        <v>3798</v>
+      </c>
+      <c r="N473" s="18" t="s">
+        <v>3827</v>
+      </c>
+      <c r="O473" s="19" t="s">
         <v>3799</v>
-      </c>
-      <c r="N473" s="18" t="s">
-        <v>3828</v>
-      </c>
-      <c r="O473" s="19" t="s">
-        <v>3800</v>
       </c>
       <c r="P473" s="19"/>
       <c r="Q473" s="20"/>
@@ -27187,7 +27187,7 @@
         <v>40081</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="C474" s="15"/>
       <c r="D474" s="16"/>
@@ -27200,13 +27200,13 @@
       <c r="K474" s="17"/>
       <c r="L474" s="17"/>
       <c r="M474" s="18" t="s">
+        <v>3798</v>
+      </c>
+      <c r="N474" s="18" t="s">
+        <v>3827</v>
+      </c>
+      <c r="O474" s="19" t="s">
         <v>3799</v>
-      </c>
-      <c r="N474" s="18" t="s">
-        <v>3828</v>
-      </c>
-      <c r="O474" s="19" t="s">
-        <v>3800</v>
       </c>
       <c r="P474" s="19"/>
       <c r="Q474" s="20"/>
@@ -27216,7 +27216,7 @@
         <v>40082</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="C475" s="15"/>
       <c r="D475" s="16"/>
@@ -27229,13 +27229,13 @@
       <c r="K475" s="17"/>
       <c r="L475" s="17"/>
       <c r="M475" s="18" t="s">
+        <v>3798</v>
+      </c>
+      <c r="N475" s="18" t="s">
+        <v>3827</v>
+      </c>
+      <c r="O475" s="19" t="s">
         <v>3799</v>
-      </c>
-      <c r="N475" s="18" t="s">
-        <v>3828</v>
-      </c>
-      <c r="O475" s="19" t="s">
-        <v>3800</v>
       </c>
       <c r="P475" s="19"/>
       <c r="Q475" s="20"/>
@@ -27245,7 +27245,7 @@
         <v>40083</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="C476" s="15">
         <v>3</v>
@@ -27260,13 +27260,13 @@
       <c r="K476" s="17"/>
       <c r="L476" s="17"/>
       <c r="M476" s="18" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="N476" s="18" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="O476" s="19" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="P476" s="19"/>
       <c r="Q476" s="20"/>
@@ -27276,7 +27276,7 @@
         <v>40084</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C477" s="15">
         <v>3</v>
@@ -27291,13 +27291,13 @@
       <c r="K477" s="17"/>
       <c r="L477" s="17"/>
       <c r="M477" s="18" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="N477" s="18" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="O477" s="19" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="P477" s="19"/>
       <c r="Q477" s="20"/>
@@ -27325,10 +27325,10 @@
         <v>886</v>
       </c>
       <c r="N478" s="18" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="O478" s="19" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="P478" s="19"/>
       <c r="Q478" s="20"/>
@@ -27356,10 +27356,10 @@
         <v>886</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="O479" s="19" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="P479" s="19"/>
       <c r="Q479" s="20"/>
@@ -27388,7 +27388,7 @@
       <c r="K480" s="17"/>
       <c r="L480" s="17"/>
       <c r="M480" s="18" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="N480" s="18" t="s">
         <v>952</v>
@@ -27421,7 +27421,7 @@
       <c r="K481" s="17"/>
       <c r="L481" s="17"/>
       <c r="M481" s="18" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="N481" s="18" t="s">
         <v>955</v>
@@ -27512,7 +27512,7 @@
       <c r="K484" s="17"/>
       <c r="L484" s="17"/>
       <c r="M484" s="18" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="N484" s="18" t="s">
         <v>960</v>
@@ -27881,7 +27881,7 @@
       <c r="K495" s="17"/>
       <c r="L495" s="17"/>
       <c r="M495" s="18" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="N495" s="18" t="s">
         <v>995</v>
@@ -27910,7 +27910,7 @@
       <c r="K496" s="17"/>
       <c r="L496" s="17"/>
       <c r="M496" s="18" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="N496" s="18"/>
       <c r="O496" s="19"/>
@@ -27944,7 +27944,7 @@
         <v>999</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="O497" s="19"/>
       <c r="P497" s="19"/>
@@ -27955,7 +27955,7 @@
         <v>10366</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="C498" s="15">
         <v>1</v>
@@ -27970,19 +27970,19 @@
       <c r="K498" s="17"/>
       <c r="L498" s="17"/>
       <c r="M498" s="18" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="N498" s="18" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="O498" s="19" t="s">
+        <v>3877</v>
+      </c>
+      <c r="P498" s="19" t="s">
+        <v>3879</v>
+      </c>
+      <c r="Q498" s="20" t="s">
         <v>3878</v>
-      </c>
-      <c r="P498" s="19" t="s">
-        <v>3880</v>
-      </c>
-      <c r="Q498" s="20" t="s">
-        <v>3879</v>
       </c>
     </row>
     <row r="499" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27990,7 +27990,7 @@
         <v>20366</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="C499" s="15">
         <v>2</v>
@@ -28016,7 +28016,7 @@
       <c r="N499" s="18"/>
       <c r="O499" s="19"/>
       <c r="P499" s="19" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="Q499" s="20"/>
     </row>
@@ -28025,7 +28025,7 @@
         <v>20365</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="C500" s="15">
         <v>1</v>
@@ -28051,7 +28051,7 @@
       <c r="N500" s="18"/>
       <c r="O500" s="19"/>
       <c r="P500" s="19" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="Q500" s="20"/>
     </row>
@@ -28060,7 +28060,7 @@
         <v>20364</v>
       </c>
       <c r="B501" s="15" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="C501" s="15"/>
       <c r="D501" s="16"/>
@@ -28080,7 +28080,7 @@
       <c r="N501" s="18"/>
       <c r="O501" s="19"/>
       <c r="P501" s="19" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="Q501" s="20"/>
     </row>
@@ -28089,7 +28089,7 @@
         <v>20363</v>
       </c>
       <c r="B502" s="15" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C502" s="15"/>
       <c r="D502" s="16"/>
@@ -28106,13 +28106,13 @@
       <c r="M502" s="18"/>
       <c r="N502" s="18"/>
       <c r="O502" s="19" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="P502" s="19" t="s">
-        <v>3887</v>
+        <v>3886</v>
       </c>
       <c r="Q502" s="20" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="503" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28120,7 +28120,7 @@
         <v>20362</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C503" s="15">
         <v>1</v>
@@ -28149,7 +28149,7 @@
         <v>20361</v>
       </c>
       <c r="B504" s="15" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="C504" s="15"/>
       <c r="D504" s="16"/>
@@ -28191,7 +28191,7 @@
       <c r="K505" s="17"/>
       <c r="L505" s="17"/>
       <c r="M505" s="18" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="N505" s="18"/>
       <c r="O505" s="19"/>
@@ -28203,13 +28203,13 @@
         <v>20367</v>
       </c>
       <c r="B506" s="15" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="C506" s="15">
         <v>3</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="E506" s="17"/>
       <c r="F506" s="17">
@@ -28226,10 +28226,10 @@
       <c r="K506" s="17"/>
       <c r="L506" s="17"/>
       <c r="M506" s="18" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="N506" s="18" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="O506" s="19"/>
       <c r="P506" s="19"/>
@@ -28256,10 +28256,10 @@
       <c r="L507" s="17"/>
       <c r="M507" s="18"/>
       <c r="N507" s="18" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="O507" s="19" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="P507" s="19"/>
       <c r="Q507" s="20"/>
@@ -28269,7 +28269,7 @@
         <v>20369</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="C508" s="15"/>
       <c r="D508" s="16"/>
@@ -28282,11 +28282,11 @@
       <c r="K508" s="17"/>
       <c r="L508" s="17"/>
       <c r="M508" s="18" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="N508" s="18"/>
       <c r="O508" s="19" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="P508" s="19"/>
       <c r="Q508" s="20"/>
@@ -28313,7 +28313,7 @@
       <c r="K509" s="17"/>
       <c r="L509" s="17"/>
       <c r="M509" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N509" s="18" t="s">
         <v>1002</v>
@@ -28344,7 +28344,7 @@
       <c r="K510" s="17"/>
       <c r="L510" s="17"/>
       <c r="M510" s="18" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="N510" s="18" t="s">
         <v>1004</v>
@@ -28375,7 +28375,7 @@
       <c r="K511" s="17"/>
       <c r="L511" s="17"/>
       <c r="M511" s="18" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="N511" s="18" t="s">
         <v>1006</v>
@@ -28406,7 +28406,7 @@
       <c r="K512" s="17"/>
       <c r="L512" s="17"/>
       <c r="M512" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N512" s="18" t="s">
         <v>1008</v>
@@ -28437,7 +28437,7 @@
       <c r="K513" s="17"/>
       <c r="L513" s="17"/>
       <c r="M513" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N513" s="18" t="s">
         <v>1010</v>
@@ -28468,7 +28468,7 @@
       <c r="K514" s="17"/>
       <c r="L514" s="17"/>
       <c r="M514" s="18" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="N514" s="18" t="s">
         <v>1012</v>
@@ -28499,7 +28499,7 @@
       <c r="K515" s="17"/>
       <c r="L515" s="17"/>
       <c r="M515" s="18" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="N515" s="18" t="s">
         <v>1014</v>
@@ -28530,7 +28530,7 @@
       <c r="K516" s="17"/>
       <c r="L516" s="17"/>
       <c r="M516" s="18" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="N516" s="18" t="s">
         <v>1016</v>
@@ -28563,7 +28563,7 @@
       <c r="K517" s="17"/>
       <c r="L517" s="17"/>
       <c r="M517" s="18" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="N517" s="18" t="s">
         <v>1018</v>
@@ -28596,7 +28596,7 @@
       <c r="K518" s="17"/>
       <c r="L518" s="17"/>
       <c r="M518" s="18" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="N518" s="18" t="s">
         <v>1020</v>
@@ -28629,7 +28629,7 @@
         <v>1018</v>
       </c>
       <c r="O519" s="19" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="P519" s="19"/>
       <c r="Q519" s="20"/>
@@ -28639,13 +28639,13 @@
         <v>20380</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="C520" s="15">
         <v>2</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E520" s="17"/>
       <c r="F520" s="17"/>
@@ -28658,10 +28658,10 @@
       <c r="K520" s="17"/>
       <c r="L520" s="17"/>
       <c r="M520" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N520" s="18" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="O520" s="19"/>
       <c r="P520" s="19"/>
@@ -28672,13 +28672,13 @@
         <v>20381</v>
       </c>
       <c r="B521" s="15" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="C521" s="15">
         <v>2</v>
       </c>
       <c r="D521" s="16" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="E521" s="17"/>
       <c r="F521" s="17">
@@ -28693,10 +28693,10 @@
       <c r="K521" s="17"/>
       <c r="L521" s="17"/>
       <c r="M521" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N521" s="18" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="O521" s="19"/>
       <c r="P521" s="19"/>
@@ -28707,13 +28707,13 @@
         <v>20382</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C522" s="15">
         <v>2</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="E522" s="17"/>
       <c r="F522" s="17">
@@ -28730,10 +28730,10 @@
       <c r="K522" s="17"/>
       <c r="L522" s="17"/>
       <c r="M522" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N522" s="18" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="O522" s="19"/>
       <c r="P522" s="19"/>
@@ -28744,13 +28744,13 @@
         <v>20383</v>
       </c>
       <c r="B523" s="15" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="C523" s="15">
         <v>2</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="E523" s="17"/>
       <c r="F523" s="17">
@@ -28765,10 +28765,10 @@
       <c r="K523" s="17"/>
       <c r="L523" s="17"/>
       <c r="M523" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N523" s="18" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="O523" s="19"/>
       <c r="P523" s="19"/>
@@ -28779,13 +28779,13 @@
         <v>20384</v>
       </c>
       <c r="B524" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="C524" s="15">
         <v>2</v>
       </c>
       <c r="D524" s="16" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="E524" s="17"/>
       <c r="F524" s="17"/>
@@ -28796,10 +28796,10 @@
       <c r="K524" s="17"/>
       <c r="L524" s="17"/>
       <c r="M524" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="O524" s="19"/>
       <c r="P524" s="19"/>
@@ -28829,7 +28829,7 @@
       <c r="K525" s="17"/>
       <c r="L525" s="17"/>
       <c r="M525" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N525" s="18" t="s">
         <v>1022</v>
@@ -28862,7 +28862,7 @@
       <c r="K526" s="17"/>
       <c r="L526" s="17"/>
       <c r="M526" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N526" s="18" t="s">
         <v>1024</v>
@@ -28895,7 +28895,7 @@
       <c r="K527" s="17"/>
       <c r="L527" s="17"/>
       <c r="M527" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N527" s="18" t="s">
         <v>1026</v>
@@ -28928,7 +28928,7 @@
       <c r="K528" s="17"/>
       <c r="L528" s="17"/>
       <c r="M528" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N528" s="18" t="s">
         <v>1028</v>
@@ -28961,7 +28961,7 @@
       <c r="K529" s="17"/>
       <c r="L529" s="17"/>
       <c r="M529" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N529" s="18" t="s">
         <v>1030</v>
@@ -28992,7 +28992,7 @@
       <c r="K530" s="17"/>
       <c r="L530" s="17"/>
       <c r="M530" s="18" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="N530" s="18"/>
       <c r="O530" s="19"/>
@@ -29023,7 +29023,7 @@
       <c r="K531" s="17"/>
       <c r="L531" s="17"/>
       <c r="M531" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N531" s="18" t="s">
         <v>1033</v>
@@ -29056,7 +29056,7 @@
       <c r="K532" s="17"/>
       <c r="L532" s="17"/>
       <c r="M532" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N532" s="18" t="s">
         <v>1035</v>
@@ -29089,7 +29089,7 @@
       <c r="K533" s="17"/>
       <c r="L533" s="17"/>
       <c r="M533" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N533" s="18" t="s">
         <v>1037</v>
@@ -29122,7 +29122,7 @@
       <c r="K534" s="17"/>
       <c r="L534" s="17"/>
       <c r="M534" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N534" s="18" t="s">
         <v>1039</v>
@@ -29155,7 +29155,7 @@
       <c r="K535" s="17"/>
       <c r="L535" s="17"/>
       <c r="M535" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N535" s="18" t="s">
         <v>1041</v>
@@ -29169,7 +29169,7 @@
         <v>20390</v>
       </c>
       <c r="B536" s="15" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="C536" s="15">
         <v>3</v>
@@ -29186,10 +29186,10 @@
       </c>
       <c r="L536" s="17"/>
       <c r="M536" s="18" t="s">
+        <v>3833</v>
+      </c>
+      <c r="N536" s="18" t="s">
         <v>3834</v>
-      </c>
-      <c r="N536" s="18" t="s">
-        <v>3835</v>
       </c>
       <c r="O536" s="19"/>
       <c r="P536" s="19"/>
@@ -29251,10 +29251,10 @@
         <v>1045</v>
       </c>
       <c r="P538" s="19" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="Q538" s="20" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="539" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29284,7 +29284,7 @@
         <v>1047</v>
       </c>
       <c r="P539" s="19" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="Q539" s="20" t="s">
         <v>1048</v>
@@ -29317,7 +29317,7 @@
         <v>1050</v>
       </c>
       <c r="P540" s="19" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="Q540" s="20" t="s">
         <v>1051</v>
@@ -29350,7 +29350,7 @@
         <v>1053</v>
       </c>
       <c r="P541" s="19" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="Q541" s="20" t="s">
         <v>1054</v>
@@ -29383,7 +29383,7 @@
         <v>1056</v>
       </c>
       <c r="P542" s="19" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="Q542" s="20" t="s">
         <v>1057</v>
@@ -29416,7 +29416,7 @@
         <v>1059</v>
       </c>
       <c r="P543" s="19" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="Q543" s="20" t="s">
         <v>1060</v>
@@ -29449,7 +29449,7 @@
         <v>1062</v>
       </c>
       <c r="P544" s="19" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="Q544" s="20" t="s">
         <v>1063</v>
@@ -29482,7 +29482,7 @@
         <v>1065</v>
       </c>
       <c r="P545" s="19" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="Q545" s="20" t="s">
         <v>1066</v>
@@ -29512,10 +29512,10 @@
       <c r="M546" s="18"/>
       <c r="N546" s="18"/>
       <c r="O546" s="19" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="P546" s="19" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="Q546" s="20" t="s">
         <v>1068</v>
@@ -29545,7 +29545,7 @@
       <c r="M547" s="18"/>
       <c r="N547" s="18"/>
       <c r="O547" s="19" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="P547" s="19"/>
       <c r="Q547" s="20"/>
@@ -29574,13 +29574,13 @@
       <c r="M548" s="18"/>
       <c r="N548" s="18"/>
       <c r="O548" s="19" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="P548" s="19" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="Q548" s="20" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="549" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29607,10 +29607,10 @@
       <c r="M549" s="18"/>
       <c r="N549" s="18"/>
       <c r="O549" s="19" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="P549" s="19" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="Q549" s="20" t="s">
         <v>1071</v>
@@ -29640,10 +29640,10 @@
       <c r="M550" s="18"/>
       <c r="N550" s="18"/>
       <c r="O550" s="19" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="P550" s="19" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="Q550" s="20" t="s">
         <v>1071</v>
@@ -29673,10 +29673,10 @@
       <c r="M551" s="18"/>
       <c r="N551" s="18"/>
       <c r="O551" s="19" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="P551" s="19" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="Q551" s="20" t="s">
         <v>1071</v>
@@ -29706,10 +29706,10 @@
       <c r="M552" s="18"/>
       <c r="N552" s="18"/>
       <c r="O552" s="19" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="P552" s="19" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="Q552" s="20" t="s">
         <v>1071</v>
@@ -29739,10 +29739,10 @@
       <c r="M553" s="18"/>
       <c r="N553" s="18"/>
       <c r="O553" s="26" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="P553" s="19" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="Q553" s="20" t="s">
         <v>1071</v>
@@ -29775,7 +29775,7 @@
         <v>1078</v>
       </c>
       <c r="P554" s="19" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="Q554" s="20" t="s">
         <v>1071</v>
@@ -29817,13 +29817,13 @@
         <v>20409</v>
       </c>
       <c r="B556" s="15" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="C556" s="15">
         <v>3</v>
       </c>
       <c r="D556" s="16" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="E556" s="17"/>
       <c r="F556" s="17"/>
@@ -29850,7 +29850,7 @@
         <v>20408</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="C557" s="15">
         <v>3</v>
@@ -29865,7 +29865,7 @@
       <c r="K557" s="17"/>
       <c r="L557" s="17"/>
       <c r="M557" s="18" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="N557" s="18"/>
       <c r="O557" s="19"/>
@@ -29890,7 +29890,7 @@
       <c r="K558" s="17"/>
       <c r="L558" s="17"/>
       <c r="M558" s="18" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="N558" s="18" t="s">
         <v>1082</v>
@@ -30126,7 +30126,7 @@
         <v>10414</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="C567" s="15"/>
       <c r="D567" s="16"/>
@@ -30180,7 +30180,7 @@
         <v>10416</v>
       </c>
       <c r="B569" s="15" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="C569" s="15"/>
       <c r="D569" s="16"/>
@@ -30261,7 +30261,7 @@
         <v>10418</v>
       </c>
       <c r="B572" s="15" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="C572" s="15"/>
       <c r="D572" s="16"/>
@@ -30288,7 +30288,7 @@
         <v>10419</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="C573" s="15"/>
       <c r="D573" s="16"/>
@@ -30315,7 +30315,7 @@
         <v>10420</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="C574" s="15"/>
       <c r="D574" s="16"/>
@@ -30481,7 +30481,7 @@
         <v>20423</v>
       </c>
       <c r="B580" s="15" t="s">
-        <v>3895</v>
+        <v>3894</v>
       </c>
       <c r="C580" s="15"/>
       <c r="D580" s="16"/>
@@ -30519,10 +30519,10 @@
       <c r="K581" s="17"/>
       <c r="L581" s="17"/>
       <c r="M581" s="18" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="N581" s="18" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="O581" s="19" t="s">
         <v>1123</v>
@@ -30548,10 +30548,10 @@
       <c r="K582" s="17"/>
       <c r="L582" s="17"/>
       <c r="M582" s="18" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="N582" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="O582" s="19"/>
       <c r="P582" s="19"/>
@@ -30726,7 +30726,7 @@
         <v>10431</v>
       </c>
       <c r="B589" s="15" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="C589" s="15"/>
       <c r="D589" s="16"/>
@@ -30753,7 +30753,7 @@
         <v>10432</v>
       </c>
       <c r="B590" s="15" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="C590" s="15"/>
       <c r="D590" s="16"/>
@@ -30890,7 +30890,7 @@
         <v>20436</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="C595" s="15"/>
       <c r="D595" s="16"/>
@@ -30969,7 +30969,7 @@
         <v>10438</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="C598" s="15"/>
       <c r="D598" s="16"/>
@@ -31011,7 +31011,9 @@
       <c r="M599" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N599" s="18"/>
+      <c r="N599" s="18" t="s">
+        <v>3954</v>
+      </c>
       <c r="O599" s="19"/>
       <c r="P599" s="19"/>
       <c r="Q599" s="20"/>
@@ -31050,7 +31052,7 @@
         <v>10441</v>
       </c>
       <c r="B601" s="15" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="C601" s="15"/>
       <c r="D601" s="16"/>
@@ -31309,7 +31311,7 @@
         <v>862</v>
       </c>
       <c r="N610" s="18" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="O610" s="19"/>
       <c r="P610" s="19"/>
@@ -31648,13 +31650,13 @@
         <v>10458</v>
       </c>
       <c r="B623" s="15" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="C623" s="15">
         <v>1</v>
       </c>
       <c r="D623" s="16" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="E623" s="17"/>
       <c r="F623" s="17"/>
@@ -31670,10 +31672,10 @@
       </c>
       <c r="O623" s="19"/>
       <c r="P623" s="19" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="Q623" s="20" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
     </row>
     <row r="624" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31681,7 +31683,7 @@
         <v>20461</v>
       </c>
       <c r="B624" s="15" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="C624" s="15">
         <v>2</v>
@@ -31708,7 +31710,7 @@
         <v>20462</v>
       </c>
       <c r="B625" s="15" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="C625" s="15">
         <v>2</v>
@@ -31789,7 +31791,7 @@
         <v>10460</v>
       </c>
       <c r="B628" s="15" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C628" s="15"/>
       <c r="D628" s="16"/>
@@ -32826,7 +32828,7 @@
         <v>886</v>
       </c>
       <c r="N665" s="18" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="O665" s="19" t="s">
         <v>1286</v>
@@ -33923,10 +33925,10 @@
         <v>1308</v>
       </c>
       <c r="N704" s="18" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="O704" s="19" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="P704" s="19"/>
       <c r="Q704" s="20"/>
@@ -33953,7 +33955,7 @@
       <c r="M705" s="18"/>
       <c r="N705" s="18"/>
       <c r="O705" s="19" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="P705" s="19"/>
       <c r="Q705" s="20"/>
@@ -34783,7 +34785,7 @@
         <v>1434</v>
       </c>
       <c r="N734" s="18" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="O734" s="19"/>
       <c r="P734" s="19"/>
@@ -34812,7 +34814,7 @@
         <v>1436</v>
       </c>
       <c r="N735" s="18" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="O735" s="19"/>
       <c r="P735" s="19"/>
@@ -34977,7 +34979,7 @@
       <c r="K741" s="17"/>
       <c r="L741" s="17"/>
       <c r="M741" s="18" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="N741" s="18" t="s">
         <v>1448</v>
@@ -35051,7 +35053,7 @@
         <v>20567</v>
       </c>
       <c r="B744" s="15" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C744" s="15"/>
       <c r="D744" s="16"/>
@@ -35064,17 +35066,17 @@
       <c r="K744" s="17"/>
       <c r="L744" s="17"/>
       <c r="M744" s="18" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="N744" s="18" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="O744" s="19"/>
       <c r="P744" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q744" s="20" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="745" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35373,7 +35375,7 @@
         <v>1477</v>
       </c>
       <c r="O755" s="19" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="P755" s="19"/>
       <c r="Q755" s="20"/>
@@ -35426,13 +35428,13 @@
         <v>1308</v>
       </c>
       <c r="N757" s="18" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="O757" s="19" t="s">
         <v>1480</v>
       </c>
       <c r="P757" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q757" s="20" t="s">
         <v>1481</v>
@@ -36044,7 +36046,7 @@
         <v>1528</v>
       </c>
       <c r="N779" s="18" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="O779" s="19" t="s">
         <v>1529</v>
@@ -36075,7 +36077,7 @@
         <v>1531</v>
       </c>
       <c r="N780" s="18" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="O780" s="19" t="s">
         <v>1529</v>
@@ -36519,7 +36521,7 @@
         <v>1553</v>
       </c>
       <c r="N796" s="18" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="O796" s="19"/>
       <c r="P796" s="19"/>
@@ -36548,7 +36550,7 @@
         <v>1505</v>
       </c>
       <c r="N797" s="18" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="O797" s="19"/>
       <c r="P797" s="19"/>
@@ -36836,7 +36838,7 @@
         <v>1564</v>
       </c>
       <c r="N807" s="18" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="O807" s="19"/>
       <c r="P807" s="19"/>
@@ -37633,7 +37635,7 @@
         <v>10649</v>
       </c>
       <c r="B836" s="15" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="C836" s="15"/>
       <c r="D836" s="16"/>
@@ -37660,7 +37662,7 @@
         <v>10650</v>
       </c>
       <c r="B837" s="15" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C837" s="15"/>
       <c r="D837" s="16"/>
@@ -37687,7 +37689,7 @@
         <v>10651</v>
       </c>
       <c r="B838" s="15" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="C838" s="15"/>
       <c r="D838" s="16"/>
@@ -37714,7 +37716,7 @@
         <v>10652</v>
       </c>
       <c r="B839" s="15" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="C839" s="15"/>
       <c r="D839" s="16"/>
@@ -37741,7 +37743,7 @@
         <v>10653</v>
       </c>
       <c r="B840" s="15" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C840" s="15"/>
       <c r="D840" s="16"/>
@@ -38675,7 +38677,7 @@
         <v>1665</v>
       </c>
       <c r="N872" s="18" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="O872" s="19"/>
       <c r="P872" s="19"/>
@@ -38704,7 +38706,7 @@
         <v>1708</v>
       </c>
       <c r="N873" s="18" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="O873" s="19"/>
       <c r="P873" s="19"/>
@@ -39057,7 +39059,7 @@
         <v>1738</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="O886" s="19"/>
       <c r="P886" s="19"/>
@@ -39084,7 +39086,7 @@
         <v>1295</v>
       </c>
       <c r="N887" s="18" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="O887" s="19"/>
       <c r="P887" s="19"/>
@@ -39257,7 +39259,7 @@
         <v>10706</v>
       </c>
       <c r="B894" s="15" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="C894" s="15"/>
       <c r="D894" s="16"/>
@@ -41041,13 +41043,13 @@
         <v>1888</v>
       </c>
       <c r="O957" s="19" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="P957" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q957" s="20" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="958" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41082,7 +41084,7 @@
         <v>20770</v>
       </c>
       <c r="B959" s="15" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="C959" s="15">
         <v>2</v>
@@ -41097,10 +41099,10 @@
       <c r="K959" s="17"/>
       <c r="L959" s="17"/>
       <c r="M959" s="18" t="s">
+        <v>3552</v>
+      </c>
+      <c r="N959" s="18" t="s">
         <v>3553</v>
-      </c>
-      <c r="N959" s="18" t="s">
-        <v>3554</v>
       </c>
       <c r="O959" s="19"/>
       <c r="P959" s="19"/>
@@ -41111,7 +41113,7 @@
         <v>10770</v>
       </c>
       <c r="B960" s="15" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="C960" s="15">
         <v>2</v>
@@ -41140,7 +41142,7 @@
         <v>10771</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="C961" s="15">
         <v>2</v>
@@ -41169,7 +41171,7 @@
         <v>10772</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="C962" s="15">
         <v>2</v>
@@ -41198,7 +41200,7 @@
         <v>10773</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="C963" s="15">
         <v>2</v>
@@ -41256,7 +41258,7 @@
         <v>10775</v>
       </c>
       <c r="B965" s="15" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="C965" s="15">
         <v>2</v>
@@ -41285,7 +41287,7 @@
         <v>10776</v>
       </c>
       <c r="B966" s="15" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C966" s="15">
         <v>2</v>
@@ -41343,7 +41345,7 @@
         <v>10778</v>
       </c>
       <c r="B968" s="15" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="C968" s="15">
         <v>2</v>
@@ -41372,7 +41374,7 @@
         <v>10779</v>
       </c>
       <c r="B969" s="15" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="C969" s="15">
         <v>2</v>
@@ -41430,7 +41432,7 @@
         <v>10781</v>
       </c>
       <c r="B971" s="15" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="C971" s="15">
         <v>2</v>
@@ -41459,7 +41461,7 @@
         <v>10782</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C972" s="15">
         <v>2</v>
@@ -42349,7 +42351,7 @@
         <v>1295</v>
       </c>
       <c r="N1002" s="18" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="O1002" s="19"/>
       <c r="P1002" s="19"/>
@@ -43531,7 +43533,7 @@
         <v>2044</v>
       </c>
       <c r="N1044" s="18" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="O1044" s="19"/>
       <c r="P1044" s="19"/>
@@ -44131,7 +44133,7 @@
         <v>10876</v>
       </c>
       <c r="B1066" s="15" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="C1066" s="15">
         <v>1</v>
@@ -45581,7 +45583,7 @@
       <c r="K1117" s="17"/>
       <c r="L1117" s="17"/>
       <c r="M1117" s="18" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="N1117" s="18" t="s">
         <v>2217</v>
@@ -46076,7 +46078,7 @@
         <v>2257</v>
       </c>
       <c r="N1135" s="18" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="O1135" s="19"/>
       <c r="P1135" s="19"/>
@@ -46103,7 +46105,7 @@
         <v>2259</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="O1136" s="19"/>
       <c r="P1136" s="19"/>
@@ -46132,7 +46134,7 @@
         <v>2261</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="O1137" s="19"/>
       <c r="P1137" s="19"/>
@@ -46918,7 +46920,7 @@
         <v>2322</v>
       </c>
       <c r="N1165" s="18" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="O1165" s="19"/>
       <c r="P1165" s="19"/>
@@ -46947,7 +46949,7 @@
         <v>2323</v>
       </c>
       <c r="N1166" s="18" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="O1166" s="19"/>
       <c r="P1166" s="19"/>
@@ -48109,7 +48111,7 @@
         <v>2247</v>
       </c>
       <c r="N1208" s="18" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="O1208" s="19"/>
       <c r="P1208" s="19"/>
@@ -48120,7 +48122,7 @@
         <v>21015</v>
       </c>
       <c r="B1209" s="15" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="C1209" s="15"/>
       <c r="D1209" s="16"/>
@@ -48136,7 +48138,7 @@
         <v>2247</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1209" s="19"/>
       <c r="P1209" s="19"/>
@@ -48163,7 +48165,7 @@
         <v>2247</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1210" s="19"/>
       <c r="P1210" s="19"/>
@@ -48190,7 +48192,7 @@
         <v>2247</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1211" s="19"/>
       <c r="P1211" s="19"/>
@@ -48217,7 +48219,7 @@
         <v>2247</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1212" s="19"/>
       <c r="P1212" s="19"/>
@@ -48244,7 +48246,7 @@
         <v>2247</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1213" s="19"/>
       <c r="P1213" s="19"/>
@@ -48271,7 +48273,7 @@
         <v>2247</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="O1214" s="19"/>
       <c r="P1214" s="19"/>
@@ -50398,7 +50400,7 @@
         <v>2574</v>
       </c>
       <c r="N1291" s="18" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="O1291" s="19"/>
       <c r="P1291" s="19"/>
@@ -50887,7 +50889,7 @@
       <c r="K1309" s="17"/>
       <c r="L1309" s="17"/>
       <c r="M1309" s="18" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="N1309" s="18" t="s">
         <v>2628</v>
@@ -51218,7 +51220,7 @@
         <v>2612</v>
       </c>
       <c r="N1321" s="18" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="O1321" s="19"/>
       <c r="P1321" s="19"/>
@@ -51272,7 +51274,7 @@
         <v>2612</v>
       </c>
       <c r="N1323" s="18" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="O1323" s="19"/>
       <c r="P1323" s="19"/>
@@ -51298,7 +51300,7 @@
       <c r="K1324" s="17"/>
       <c r="L1324" s="17"/>
       <c r="M1324" s="18" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="N1324" s="18" t="s">
         <v>2660</v>
@@ -51327,10 +51329,10 @@
       <c r="K1325" s="17"/>
       <c r="L1325" s="17"/>
       <c r="M1325" s="18" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="N1325" s="18" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="O1325" s="19"/>
       <c r="P1325" s="19"/>
@@ -52518,7 +52520,7 @@
         <v>1998</v>
       </c>
       <c r="N1369" s="18" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="O1369" s="19"/>
       <c r="P1369" s="19"/>
@@ -53427,10 +53429,10 @@
       </c>
       <c r="O1402" s="19"/>
       <c r="P1402" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q1402" s="20" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="1403" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -53842,10 +53844,10 @@
       </c>
       <c r="O1417" s="19"/>
       <c r="P1417" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q1417" s="20" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1418" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -55225,10 +55227,10 @@
       </c>
       <c r="O1466" s="19"/>
       <c r="P1466" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q1466" s="20" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1467" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -55512,17 +55514,17 @@
       <c r="K1476" s="17"/>
       <c r="L1476" s="17"/>
       <c r="M1476" s="18" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="N1476" s="18" t="s">
         <v>2957</v>
       </c>
       <c r="O1476" s="19"/>
       <c r="P1476" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q1476" s="20" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1477" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -56022,7 +56024,7 @@
         <v>3003</v>
       </c>
       <c r="N1493" s="18" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="O1493" s="19"/>
       <c r="P1493" s="19"/>
@@ -56049,7 +56051,7 @@
         <v>3003</v>
       </c>
       <c r="N1494" s="18" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="O1494" s="19"/>
       <c r="P1494" s="19"/>
@@ -56075,7 +56077,7 @@
       <c r="K1495" s="17"/>
       <c r="L1495" s="17"/>
       <c r="M1495" s="18" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="N1495" s="18" t="s">
         <v>3005</v>
@@ -56486,7 +56488,7 @@
         <v>2921</v>
       </c>
       <c r="N1509" s="18" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="O1509" s="19"/>
       <c r="P1509" s="19"/>
@@ -56543,7 +56545,7 @@
         <v>3039</v>
       </c>
       <c r="O1511" s="19" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="P1511" s="19"/>
       <c r="Q1511" s="20"/>
@@ -56977,10 +56979,10 @@
       </c>
       <c r="O1526" s="19"/>
       <c r="P1526" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="Q1526" s="20" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1527" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -57382,7 +57384,7 @@
         <v>21326</v>
       </c>
       <c r="B1541" s="15" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="C1541" s="15"/>
       <c r="D1541" s="16"/>
@@ -57398,7 +57400,7 @@
         <v>1998</v>
       </c>
       <c r="N1541" s="18" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="O1541" s="19"/>
       <c r="P1541" s="19"/>
@@ -57409,7 +57411,7 @@
         <v>21327</v>
       </c>
       <c r="B1542" s="15" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="C1542" s="15"/>
       <c r="D1542" s="16"/>
@@ -57425,7 +57427,7 @@
         <v>3094</v>
       </c>
       <c r="N1542" s="18" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="O1542" s="19"/>
       <c r="P1542" s="19"/>
@@ -58091,7 +58093,7 @@
         <v>3125</v>
       </c>
       <c r="N1564" s="18" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="O1564" s="19"/>
       <c r="P1564" s="19"/>
@@ -58115,10 +58117,10 @@
       <c r="K1565" s="17"/>
       <c r="L1565" s="17"/>
       <c r="M1565" s="18" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="N1565" s="18" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="O1565" s="19"/>
       <c r="P1565" s="19"/>
@@ -58145,7 +58147,7 @@
         <v>3003</v>
       </c>
       <c r="N1566" s="18" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="O1566" s="19"/>
       <c r="P1566" s="19"/>
@@ -58172,7 +58174,7 @@
         <v>3003</v>
       </c>
       <c r="N1567" s="18" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="O1567" s="19"/>
       <c r="P1567" s="19"/>
@@ -58199,7 +58201,7 @@
         <v>3003</v>
       </c>
       <c r="N1568" s="18" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="O1568" s="19"/>
       <c r="P1568" s="19"/>
@@ -58228,7 +58230,7 @@
         <v>3003</v>
       </c>
       <c r="N1569" s="18" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="O1569" s="19"/>
       <c r="P1569" s="19"/>
@@ -58257,7 +58259,7 @@
         <v>3003</v>
       </c>
       <c r="N1570" s="18" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="O1570" s="19"/>
       <c r="P1570" s="19"/>
@@ -58284,7 +58286,7 @@
         <v>3003</v>
       </c>
       <c r="N1571" s="18" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="O1571" s="19"/>
       <c r="P1571" s="19"/>
@@ -58311,7 +58313,7 @@
         <v>3003</v>
       </c>
       <c r="N1572" s="18" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="O1572" s="19"/>
       <c r="P1572" s="19"/>
@@ -58365,7 +58367,7 @@
         <v>3003</v>
       </c>
       <c r="N1574" s="18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="O1574" s="19"/>
       <c r="P1574" s="19"/>
@@ -58421,7 +58423,7 @@
         <v>3003</v>
       </c>
       <c r="N1576" s="18" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="O1576" s="19"/>
       <c r="P1576" s="19"/>
@@ -58448,7 +58450,7 @@
         <v>3003</v>
       </c>
       <c r="N1577" s="18" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="O1577" s="19"/>
       <c r="P1577" s="19"/>
@@ -58477,7 +58479,7 @@
         <v>3003</v>
       </c>
       <c r="N1578" s="18" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="O1578" s="19"/>
       <c r="P1578" s="19"/>
@@ -58531,7 +58533,7 @@
         <v>3003</v>
       </c>
       <c r="N1580" s="18" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="O1580" s="19"/>
       <c r="P1580" s="19"/>
@@ -58558,7 +58560,7 @@
         <v>3003</v>
       </c>
       <c r="N1581" s="18" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="O1581" s="19"/>
       <c r="P1581" s="19"/>
@@ -58612,7 +58614,7 @@
         <v>3003</v>
       </c>
       <c r="N1583" s="18" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="O1583" s="19"/>
       <c r="P1583" s="19"/>
@@ -58639,7 +58641,7 @@
         <v>3003</v>
       </c>
       <c r="N1584" s="18" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="O1584" s="19"/>
       <c r="P1584" s="19"/>
@@ -58666,7 +58668,7 @@
         <v>3003</v>
       </c>
       <c r="N1585" s="18" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="O1585" s="19"/>
       <c r="P1585" s="19"/>
@@ -58693,7 +58695,7 @@
         <v>3003</v>
       </c>
       <c r="N1586" s="18" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="O1586" s="19"/>
       <c r="P1586" s="19"/>
@@ -58722,7 +58724,7 @@
         <v>3153</v>
       </c>
       <c r="N1587" s="18" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="O1587" s="19"/>
       <c r="P1587" s="19"/>
@@ -58749,7 +58751,7 @@
         <v>3003</v>
       </c>
       <c r="N1588" s="18" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="O1588" s="19"/>
       <c r="P1588" s="19"/>
@@ -58776,7 +58778,7 @@
         <v>3003</v>
       </c>
       <c r="N1589" s="18" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="O1589" s="19"/>
       <c r="P1589" s="19"/>
@@ -58803,7 +58805,7 @@
         <v>3157</v>
       </c>
       <c r="N1590" s="18" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="O1590" s="19"/>
       <c r="P1590" s="19"/>
@@ -58830,7 +58832,7 @@
         <v>3003</v>
       </c>
       <c r="N1591" s="18" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="O1591" s="19"/>
       <c r="P1591" s="19"/>
@@ -58857,7 +58859,7 @@
         <v>2875</v>
       </c>
       <c r="N1592" s="18" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="O1592" s="19"/>
       <c r="P1592" s="19"/>
@@ -58884,7 +58886,7 @@
         <v>3161</v>
       </c>
       <c r="N1593" s="18" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="O1593" s="19"/>
       <c r="P1593" s="19"/>
@@ -60122,7 +60124,7 @@
         <v>11424</v>
       </c>
       <c r="B1639" s="15" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="C1639" s="15"/>
       <c r="D1639" s="16"/>
@@ -60138,7 +60140,7 @@
         <v>1998</v>
       </c>
       <c r="N1639" s="18" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="O1639" s="19"/>
       <c r="P1639" s="19"/>
@@ -60149,7 +60151,7 @@
         <v>11425</v>
       </c>
       <c r="B1640" s="15" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="C1640" s="15"/>
       <c r="D1640" s="16"/>
@@ -60165,7 +60167,7 @@
         <v>1998</v>
       </c>
       <c r="N1640" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="O1640" s="19"/>
       <c r="P1640" s="19"/>
@@ -60176,12 +60178,10 @@
         <v>11426</v>
       </c>
       <c r="B1641" s="15" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="C1641" s="15"/>
-      <c r="D1641" s="16" t="s">
-        <v>3265</v>
-      </c>
+      <c r="D1641" s="16"/>
       <c r="E1641" s="17"/>
       <c r="F1641" s="17"/>
       <c r="G1641" s="17"/>
@@ -60194,7 +60194,7 @@
         <v>1998</v>
       </c>
       <c r="N1641" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="O1641" s="19"/>
       <c r="P1641" s="19"/>
@@ -60205,11 +60205,11 @@
         <v>11427</v>
       </c>
       <c r="B1642" s="15" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="C1642" s="15"/>
       <c r="D1642" s="16" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E1642" s="17"/>
       <c r="F1642" s="17"/>
@@ -60223,7 +60223,7 @@
         <v>1998</v>
       </c>
       <c r="N1642" s="18" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="O1642" s="19"/>
       <c r="P1642" s="19"/>
@@ -60234,7 +60234,7 @@
         <v>11428</v>
       </c>
       <c r="B1643" s="15" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="C1643" s="15"/>
       <c r="D1643" s="16"/>
@@ -60250,7 +60250,7 @@
         <v>1998</v>
       </c>
       <c r="N1643" s="18" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="O1643" s="19"/>
       <c r="P1643" s="19"/>
@@ -60261,7 +60261,7 @@
         <v>11429</v>
       </c>
       <c r="B1644" s="15" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C1644" s="15">
         <v>1</v>
@@ -60279,7 +60279,7 @@
         <v>1998</v>
       </c>
       <c r="N1644" s="18" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="O1644" s="19"/>
       <c r="P1644" s="19"/>
@@ -60290,7 +60290,7 @@
         <v>11430</v>
       </c>
       <c r="B1645" s="15" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="C1645" s="15"/>
       <c r="D1645" s="16"/>
@@ -60306,7 +60306,7 @@
         <v>1998</v>
       </c>
       <c r="N1645" s="18" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="O1645" s="19"/>
       <c r="P1645" s="19"/>
@@ -60317,7 +60317,7 @@
         <v>11431</v>
       </c>
       <c r="B1646" s="15" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="C1646" s="15"/>
       <c r="D1646" s="16"/>
@@ -60333,7 +60333,7 @@
         <v>1998</v>
       </c>
       <c r="N1646" s="18" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="O1646" s="19"/>
       <c r="P1646" s="19"/>
@@ -60344,7 +60344,7 @@
         <v>11432</v>
       </c>
       <c r="B1647" s="15" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="C1647" s="15"/>
       <c r="D1647" s="16"/>
@@ -60360,7 +60360,7 @@
         <v>1998</v>
       </c>
       <c r="N1647" s="18" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="O1647" s="19"/>
       <c r="P1647" s="19"/>
@@ -60371,7 +60371,7 @@
         <v>11433</v>
       </c>
       <c r="B1648" s="15" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="C1648" s="15"/>
       <c r="D1648" s="16"/>
@@ -60387,7 +60387,7 @@
         <v>1998</v>
       </c>
       <c r="N1648" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="O1648" s="19"/>
       <c r="P1648" s="19"/>
@@ -60398,7 +60398,7 @@
         <v>11434</v>
       </c>
       <c r="B1649" s="15" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1649" s="15"/>
       <c r="D1649" s="16"/>
@@ -60414,7 +60414,7 @@
         <v>1998</v>
       </c>
       <c r="N1649" s="18" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="O1649" s="19"/>
       <c r="P1649" s="19"/>
@@ -60425,7 +60425,7 @@
         <v>11435</v>
       </c>
       <c r="B1650" s="15" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="C1650" s="15"/>
       <c r="D1650" s="16"/>
@@ -60441,7 +60441,7 @@
         <v>1998</v>
       </c>
       <c r="N1650" s="18" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="O1650" s="19"/>
       <c r="P1650" s="19"/>
@@ -60452,7 +60452,7 @@
         <v>11436</v>
       </c>
       <c r="B1651" s="15" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="C1651" s="15"/>
       <c r="D1651" s="16"/>
@@ -60468,7 +60468,7 @@
         <v>1998</v>
       </c>
       <c r="N1651" s="18" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="O1651" s="19"/>
       <c r="P1651" s="19"/>
@@ -60479,7 +60479,7 @@
         <v>11437</v>
       </c>
       <c r="B1652" s="15" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="C1652" s="15"/>
       <c r="D1652" s="16"/>
@@ -60495,7 +60495,7 @@
         <v>1998</v>
       </c>
       <c r="N1652" s="18" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="O1652" s="19"/>
       <c r="P1652" s="19"/>
@@ -60506,7 +60506,7 @@
         <v>11438</v>
       </c>
       <c r="B1653" s="15" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="C1653" s="15"/>
       <c r="D1653" s="16"/>
@@ -60522,7 +60522,7 @@
         <v>1998</v>
       </c>
       <c r="N1653" s="18" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="O1653" s="19"/>
       <c r="P1653" s="19"/>
@@ -60533,11 +60533,11 @@
         <v>11439</v>
       </c>
       <c r="B1654" s="15" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C1654" s="15"/>
       <c r="D1654" s="16" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E1654" s="17"/>
       <c r="F1654" s="17"/>
@@ -60551,7 +60551,7 @@
         <v>1998</v>
       </c>
       <c r="N1654" s="18" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="O1654" s="19"/>
       <c r="P1654" s="19"/>
@@ -60562,7 +60562,7 @@
         <v>11440</v>
       </c>
       <c r="B1655" s="15" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="C1655" s="15"/>
       <c r="D1655" s="16"/>
@@ -60578,7 +60578,7 @@
         <v>1998</v>
       </c>
       <c r="N1655" s="18" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="O1655" s="19"/>
       <c r="P1655" s="19"/>
@@ -60589,7 +60589,7 @@
         <v>11441</v>
       </c>
       <c r="B1656" s="15" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C1656" s="15"/>
       <c r="D1656" s="16"/>
@@ -60605,7 +60605,7 @@
         <v>1998</v>
       </c>
       <c r="N1656" s="18" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="O1656" s="19"/>
       <c r="P1656" s="19"/>
@@ -60616,7 +60616,7 @@
         <v>11442</v>
       </c>
       <c r="B1657" s="15" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="C1657" s="15"/>
       <c r="D1657" s="16"/>
@@ -60632,7 +60632,7 @@
         <v>1998</v>
       </c>
       <c r="N1657" s="18" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="O1657" s="19"/>
       <c r="P1657" s="19"/>
@@ -60643,7 +60643,7 @@
         <v>11443</v>
       </c>
       <c r="B1658" s="15" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="C1658" s="15"/>
       <c r="D1658" s="16"/>
@@ -60659,7 +60659,7 @@
         <v>1998</v>
       </c>
       <c r="N1658" s="18" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="O1658" s="19"/>
       <c r="P1658" s="19"/>
@@ -60670,7 +60670,7 @@
         <v>11444</v>
       </c>
       <c r="B1659" s="15" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="C1659" s="15"/>
       <c r="D1659" s="16"/>
@@ -60686,7 +60686,7 @@
         <v>1998</v>
       </c>
       <c r="N1659" s="18" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="O1659" s="19"/>
       <c r="P1659" s="19"/>
@@ -60697,7 +60697,7 @@
         <v>11445</v>
       </c>
       <c r="B1660" s="15" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="C1660" s="15"/>
       <c r="D1660" s="16"/>
@@ -60713,7 +60713,7 @@
         <v>1998</v>
       </c>
       <c r="N1660" s="18" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="O1660" s="19"/>
       <c r="P1660" s="19"/>
@@ -60724,11 +60724,11 @@
         <v>11446</v>
       </c>
       <c r="B1661" s="15" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="C1661" s="15"/>
       <c r="D1661" s="16" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="E1661" s="17"/>
       <c r="F1661" s="17"/>
@@ -60742,7 +60742,7 @@
         <v>1998</v>
       </c>
       <c r="N1661" s="18" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="O1661" s="19"/>
       <c r="P1661" s="19"/>
@@ -60753,7 +60753,7 @@
         <v>11447</v>
       </c>
       <c r="B1662" s="15" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="C1662" s="15"/>
       <c r="D1662" s="16"/>
@@ -60769,7 +60769,7 @@
         <v>1998</v>
       </c>
       <c r="N1662" s="18" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="O1662" s="19"/>
       <c r="P1662" s="19"/>
@@ -60780,7 +60780,7 @@
         <v>11448</v>
       </c>
       <c r="B1663" s="15" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="C1663" s="15"/>
       <c r="D1663" s="16"/>
@@ -60796,7 +60796,7 @@
         <v>1998</v>
       </c>
       <c r="N1663" s="18" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="O1663" s="19"/>
       <c r="P1663" s="19"/>
@@ -60807,7 +60807,7 @@
         <v>11449</v>
       </c>
       <c r="B1664" s="15" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="C1664" s="15"/>
       <c r="D1664" s="16"/>
@@ -60823,7 +60823,7 @@
         <v>1998</v>
       </c>
       <c r="N1664" s="18" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="O1664" s="19"/>
       <c r="P1664" s="19"/>
@@ -60834,11 +60834,11 @@
         <v>11450</v>
       </c>
       <c r="B1665" s="15" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="C1665" s="15"/>
       <c r="D1665" s="16" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="E1665" s="17"/>
       <c r="F1665" s="17"/>
@@ -60852,7 +60852,7 @@
         <v>1998</v>
       </c>
       <c r="N1665" s="18" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="O1665" s="19"/>
       <c r="P1665" s="19"/>
@@ -60863,13 +60863,13 @@
         <v>11451</v>
       </c>
       <c r="B1666" s="15" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="C1666" s="15">
         <v>3</v>
       </c>
       <c r="D1666" s="16" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="E1666" s="17"/>
       <c r="F1666" s="17"/>
@@ -60882,7 +60882,7 @@
       <c r="K1666" s="17"/>
       <c r="L1666" s="17"/>
       <c r="M1666" s="18" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="N1666" s="18"/>
       <c r="O1666" s="19"/>
@@ -60894,7 +60894,7 @@
         <v>11452</v>
       </c>
       <c r="B1667" s="15" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="C1667" s="15">
         <v>1</v>
@@ -60909,10 +60909,10 @@
       <c r="K1667" s="17"/>
       <c r="L1667" s="17"/>
       <c r="M1667" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="N1667" s="18" t="s">
         <v>3315</v>
-      </c>
-      <c r="N1667" s="18" t="s">
-        <v>3316</v>
       </c>
       <c r="O1667" s="19"/>
       <c r="P1667" s="19"/>
@@ -60923,7 +60923,7 @@
         <v>11453</v>
       </c>
       <c r="B1668" s="15" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="C1668" s="15">
         <v>1</v>
@@ -60938,10 +60938,10 @@
       <c r="K1668" s="17"/>
       <c r="L1668" s="17"/>
       <c r="M1668" s="18" t="s">
+        <v>3314</v>
+      </c>
+      <c r="N1668" s="18" t="s">
         <v>3315</v>
-      </c>
-      <c r="N1668" s="18" t="s">
-        <v>3316</v>
       </c>
       <c r="O1668" s="19"/>
       <c r="P1668" s="19"/>
@@ -60952,13 +60952,13 @@
         <v>11454</v>
       </c>
       <c r="B1669" s="15" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="C1669" s="15">
         <v>1</v>
       </c>
       <c r="D1669" s="16" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="E1669" s="17"/>
       <c r="F1669" s="17"/>
@@ -60969,10 +60969,10 @@
       <c r="K1669" s="17"/>
       <c r="L1669" s="17"/>
       <c r="M1669" s="18" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="N1669" s="18" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="O1669" s="19"/>
       <c r="P1669" s="19"/>
@@ -60983,13 +60983,13 @@
         <v>11455</v>
       </c>
       <c r="B1670" s="15" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="C1670" s="15">
         <v>2</v>
       </c>
       <c r="D1670" s="16" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="E1670" s="17"/>
       <c r="F1670" s="17"/>
@@ -61000,13 +61000,13 @@
       <c r="K1670" s="17"/>
       <c r="L1670" s="17"/>
       <c r="M1670" s="18" t="s">
+        <v>3322</v>
+      </c>
+      <c r="N1670" s="18" t="s">
         <v>3323</v>
       </c>
-      <c r="N1670" s="18" t="s">
+      <c r="O1670" s="19" t="s">
         <v>3324</v>
-      </c>
-      <c r="O1670" s="19" t="s">
-        <v>3325</v>
       </c>
       <c r="P1670" s="19"/>
       <c r="Q1670" s="20"/>
@@ -61016,7 +61016,7 @@
         <v>11456</v>
       </c>
       <c r="B1671" s="15" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="C1671" s="15">
         <v>1</v>
@@ -61031,10 +61031,10 @@
       <c r="K1671" s="17"/>
       <c r="L1671" s="17"/>
       <c r="M1671" s="18" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="N1671" s="18" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="O1671" s="19"/>
       <c r="P1671" s="19"/>
@@ -61045,13 +61045,13 @@
         <v>11457</v>
       </c>
       <c r="B1672" s="15" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="C1672" s="15">
         <v>2</v>
       </c>
       <c r="D1672" s="16" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="E1672" s="17"/>
       <c r="F1672" s="17"/>
@@ -61062,13 +61062,13 @@
       <c r="K1672" s="17"/>
       <c r="L1672" s="17"/>
       <c r="M1672" s="18" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="N1672" s="18" t="s">
+        <v>3329</v>
+      </c>
+      <c r="O1672" s="19" t="s">
         <v>3330</v>
-      </c>
-      <c r="O1672" s="19" t="s">
-        <v>3331</v>
       </c>
       <c r="P1672" s="19"/>
       <c r="Q1672" s="20"/>
@@ -61078,13 +61078,13 @@
         <v>21457</v>
       </c>
       <c r="B1673" s="15" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="C1673" s="15">
         <v>2</v>
       </c>
       <c r="D1673" s="16" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="E1673" s="17"/>
       <c r="F1673" s="17"/>
@@ -61107,7 +61107,7 @@
         <v>11458</v>
       </c>
       <c r="B1674" s="15" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="C1674" s="15">
         <v>1</v>
@@ -61122,7 +61122,7 @@
       <c r="K1674" s="17"/>
       <c r="L1674" s="17"/>
       <c r="M1674" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1674" s="18"/>
       <c r="O1674" s="19"/>
@@ -61134,7 +61134,7 @@
         <v>11459</v>
       </c>
       <c r="B1675" s="15" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="C1675" s="15">
         <v>1</v>
@@ -61149,7 +61149,7 @@
       <c r="K1675" s="17"/>
       <c r="L1675" s="17"/>
       <c r="M1675" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1675" s="18"/>
       <c r="O1675" s="19"/>
@@ -61161,7 +61161,7 @@
         <v>11460</v>
       </c>
       <c r="B1676" s="15" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="C1676" s="15">
         <v>2</v>
@@ -61176,10 +61176,10 @@
       <c r="K1676" s="17"/>
       <c r="L1676" s="17"/>
       <c r="M1676" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1676" s="18" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="O1676" s="19"/>
       <c r="P1676" s="19"/>
@@ -61190,7 +61190,7 @@
         <v>11461</v>
       </c>
       <c r="B1677" s="15" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C1677" s="15">
         <v>2</v>
@@ -61205,10 +61205,10 @@
       <c r="K1677" s="17"/>
       <c r="L1677" s="17"/>
       <c r="M1677" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1677" s="18" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="O1677" s="19"/>
       <c r="P1677" s="19"/>
@@ -61219,7 +61219,7 @@
         <v>11462</v>
       </c>
       <c r="B1678" s="15" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="C1678" s="15">
         <v>2</v>
@@ -61234,10 +61234,10 @@
       <c r="K1678" s="17"/>
       <c r="L1678" s="17"/>
       <c r="M1678" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1678" s="18" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="O1678" s="19"/>
       <c r="P1678" s="19"/>
@@ -61248,7 +61248,7 @@
         <v>11463</v>
       </c>
       <c r="B1679" s="15" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="C1679" s="15">
         <v>2</v>
@@ -61263,10 +61263,10 @@
       <c r="K1679" s="17"/>
       <c r="L1679" s="17"/>
       <c r="M1679" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1679" s="18" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
       <c r="O1679" s="19"/>
       <c r="P1679" s="19"/>
@@ -61277,7 +61277,7 @@
         <v>11464</v>
       </c>
       <c r="B1680" s="15" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="C1680" s="15">
         <v>2</v>
@@ -61292,10 +61292,10 @@
       <c r="K1680" s="17"/>
       <c r="L1680" s="17"/>
       <c r="M1680" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1680" s="18" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="O1680" s="19"/>
       <c r="P1680" s="19"/>
@@ -61306,13 +61306,13 @@
         <v>11465</v>
       </c>
       <c r="B1681" s="15" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="C1681" s="15">
         <v>2</v>
       </c>
       <c r="D1681" s="16" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="E1681" s="17"/>
       <c r="F1681" s="17"/>
@@ -61325,13 +61325,13 @@
       <c r="K1681" s="17"/>
       <c r="L1681" s="17"/>
       <c r="M1681" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1681" s="18" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="O1681" s="19" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="P1681" s="19"/>
       <c r="Q1681" s="20"/>
@@ -61341,13 +61341,13 @@
         <v>11466</v>
       </c>
       <c r="B1682" s="15" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="C1682" s="15">
         <v>2</v>
       </c>
       <c r="D1682" s="16" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E1682" s="17"/>
       <c r="F1682" s="17"/>
@@ -61358,10 +61358,10 @@
       <c r="K1682" s="17"/>
       <c r="L1682" s="17"/>
       <c r="M1682" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1682" s="18" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="O1682" s="19" t="s">
         <v>2958</v>
@@ -61374,13 +61374,13 @@
         <v>11467</v>
       </c>
       <c r="B1683" s="15" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="C1683" s="15">
         <v>2</v>
       </c>
       <c r="D1683" s="16" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="E1683" s="17"/>
       <c r="F1683" s="17"/>
@@ -61391,13 +61391,13 @@
       <c r="K1683" s="17"/>
       <c r="L1683" s="17"/>
       <c r="M1683" s="18" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="N1683" s="18" t="s">
+        <v>3352</v>
+      </c>
+      <c r="O1683" s="19" t="s">
         <v>3353</v>
-      </c>
-      <c r="O1683" s="19" t="s">
-        <v>3354</v>
       </c>
       <c r="P1683" s="19"/>
       <c r="Q1683" s="20"/>
@@ -61407,7 +61407,7 @@
         <v>11468</v>
       </c>
       <c r="B1684" s="15" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C1684" s="15">
         <v>2</v>
@@ -61424,7 +61424,7 @@
       </c>
       <c r="L1684" s="17"/>
       <c r="M1684" s="18" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="N1684" s="18"/>
       <c r="O1684" s="19"/>
@@ -61436,7 +61436,7 @@
         <v>11469</v>
       </c>
       <c r="B1685" s="15" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="C1685" s="15">
         <v>2</v>
@@ -61453,10 +61453,10 @@
       </c>
       <c r="L1685" s="17"/>
       <c r="M1685" s="18" t="s">
+        <v>3422</v>
+      </c>
+      <c r="N1685" s="18" t="s">
         <v>3423</v>
-      </c>
-      <c r="N1685" s="18" t="s">
-        <v>3424</v>
       </c>
       <c r="O1685" s="19"/>
       <c r="P1685" s="19"/>
@@ -61467,7 +61467,7 @@
         <v>30001</v>
       </c>
       <c r="B1686" s="15" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="C1686" s="15"/>
       <c r="D1686" s="16"/>
@@ -61480,15 +61480,15 @@
       <c r="K1686" s="17"/>
       <c r="L1686" s="17"/>
       <c r="M1686" s="18" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="N1686" s="18"/>
       <c r="O1686" s="19" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="P1686" s="19"/>
       <c r="Q1686" s="20" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1687" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -61496,13 +61496,13 @@
         <v>30002</v>
       </c>
       <c r="B1687" s="15" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C1687" s="15">
         <v>2</v>
       </c>
       <c r="D1687" s="16" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="E1687" s="17"/>
       <c r="F1687" s="17"/>
@@ -61527,7 +61527,7 @@
         <v>11470</v>
       </c>
       <c r="B1688" s="15" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="C1688" s="15"/>
       <c r="D1688" s="16"/>
@@ -61541,7 +61541,7 @@
       <c r="L1688" s="17"/>
       <c r="M1688" s="18"/>
       <c r="N1688" s="18" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="O1688" s="19"/>
       <c r="P1688" s="19"/>
@@ -61552,7 +61552,7 @@
         <v>11471</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="C1689" s="15"/>
       <c r="D1689" s="16"/>
@@ -61568,7 +61568,7 @@
         <v>1998</v>
       </c>
       <c r="N1689" s="18" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="O1689" s="19"/>
       <c r="P1689" s="19"/>
@@ -61579,7 +61579,7 @@
         <v>11472</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="C1690" s="15"/>
       <c r="D1690" s="16"/>
@@ -61595,7 +61595,7 @@
         <v>1998</v>
       </c>
       <c r="N1690" s="18" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="O1690" s="19"/>
       <c r="P1690" s="19"/>
@@ -61606,7 +61606,7 @@
         <v>11473</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="C1691" s="15"/>
       <c r="D1691" s="16"/>
@@ -61622,7 +61622,7 @@
         <v>1998</v>
       </c>
       <c r="N1691" s="18" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="O1691" s="19"/>
       <c r="P1691" s="19"/>
@@ -61633,7 +61633,7 @@
         <v>11474</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="C1692" s="15"/>
       <c r="D1692" s="16"/>
@@ -61647,7 +61647,7 @@
       <c r="L1692" s="17"/>
       <c r="M1692" s="18"/>
       <c r="N1692" s="18" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="O1692" s="19"/>
       <c r="P1692" s="19"/>
@@ -61658,7 +61658,7 @@
         <v>11475</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="C1693" s="15"/>
       <c r="D1693" s="16"/>
@@ -61671,10 +61671,10 @@
       <c r="K1693" s="17"/>
       <c r="L1693" s="17"/>
       <c r="M1693" s="18" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="N1693" s="18" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="O1693" s="19"/>
       <c r="P1693" s="19"/>
@@ -61685,7 +61685,7 @@
         <v>11476</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="C1694" s="15"/>
       <c r="D1694" s="16"/>
@@ -61699,7 +61699,7 @@
       <c r="L1694" s="17"/>
       <c r="M1694" s="18"/>
       <c r="N1694" s="18" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="O1694" s="19"/>
       <c r="P1694" s="19"/>
@@ -61710,7 +61710,7 @@
         <v>11477</v>
       </c>
       <c r="B1695" s="15" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="C1695" s="15"/>
       <c r="D1695" s="16"/>
@@ -61723,10 +61723,10 @@
       <c r="K1695" s="17"/>
       <c r="L1695" s="17"/>
       <c r="M1695" s="18" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N1695" s="18" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="O1695" s="19"/>
       <c r="P1695" s="19"/>
@@ -61737,7 +61737,7 @@
         <v>11478</v>
       </c>
       <c r="B1696" s="15" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="C1696" s="15"/>
       <c r="D1696" s="16"/>
@@ -61750,10 +61750,10 @@
       <c r="K1696" s="17"/>
       <c r="L1696" s="17"/>
       <c r="M1696" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="N1696" s="18" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="O1696" s="19"/>
       <c r="P1696" s="19"/>
@@ -61764,7 +61764,7 @@
         <v>11479</v>
       </c>
       <c r="B1697" s="15" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="C1697" s="15"/>
       <c r="D1697" s="16"/>
@@ -61780,7 +61780,7 @@
         <v>1998</v>
       </c>
       <c r="N1697" s="18" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="O1697" s="19"/>
       <c r="P1697" s="19"/>
@@ -61791,7 +61791,7 @@
         <v>11480</v>
       </c>
       <c r="B1698" s="15" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="C1698" s="15"/>
       <c r="D1698" s="16"/>
@@ -61805,7 +61805,7 @@
       <c r="L1698" s="17"/>
       <c r="M1698" s="18"/>
       <c r="N1698" s="18" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="O1698" s="19"/>
       <c r="P1698" s="19"/>
@@ -61816,7 +61816,7 @@
         <v>11481</v>
       </c>
       <c r="B1699" s="15" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="C1699" s="15"/>
       <c r="D1699" s="16"/>
@@ -61832,7 +61832,7 @@
         <v>1998</v>
       </c>
       <c r="N1699" s="18" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="O1699" s="19"/>
       <c r="P1699" s="19"/>
@@ -61843,7 +61843,7 @@
         <v>11482</v>
       </c>
       <c r="B1700" s="15" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="C1700" s="15"/>
       <c r="D1700" s="16"/>
@@ -61856,10 +61856,10 @@
       <c r="K1700" s="17"/>
       <c r="L1700" s="17"/>
       <c r="M1700" s="18" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="N1700" s="18" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="O1700" s="19"/>
       <c r="P1700" s="19"/>
@@ -61870,7 +61870,7 @@
         <v>11483</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C1701" s="15"/>
       <c r="D1701" s="16"/>
@@ -61883,10 +61883,10 @@
       <c r="K1701" s="17"/>
       <c r="L1701" s="17"/>
       <c r="M1701" s="18" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="N1701" s="18" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="O1701" s="19"/>
       <c r="P1701" s="19"/>
@@ -61897,7 +61897,7 @@
         <v>11484</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C1702" s="15"/>
       <c r="D1702" s="16"/>
@@ -61911,7 +61911,7 @@
       <c r="L1702" s="17"/>
       <c r="M1702" s="18"/>
       <c r="N1702" s="18" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="O1702" s="19"/>
       <c r="P1702" s="19"/>
@@ -61922,7 +61922,7 @@
         <v>11485</v>
       </c>
       <c r="B1703" s="15" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="C1703" s="15"/>
       <c r="D1703" s="16"/>
@@ -61936,7 +61936,7 @@
       <c r="L1703" s="17"/>
       <c r="M1703" s="18"/>
       <c r="N1703" s="18" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="O1703" s="19"/>
       <c r="P1703" s="19"/>
@@ -61947,7 +61947,7 @@
         <v>11486</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="C1704" s="15"/>
       <c r="D1704" s="16"/>
@@ -61963,7 +61963,7 @@
         <v>1998</v>
       </c>
       <c r="N1704" s="18" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="O1704" s="19"/>
       <c r="P1704" s="19"/>
@@ -61974,7 +61974,7 @@
         <v>11487</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3945</v>
+        <v>3944</v>
       </c>
       <c r="C1705" s="15"/>
       <c r="D1705" s="16"/>
@@ -61988,7 +61988,7 @@
       <c r="L1705" s="17"/>
       <c r="M1705" s="18"/>
       <c r="N1705" s="18" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="O1705" s="19"/>
       <c r="P1705" s="19"/>
@@ -61999,7 +61999,7 @@
         <v>11488</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="C1706" s="15"/>
       <c r="D1706" s="16"/>
@@ -62012,10 +62012,10 @@
       <c r="K1706" s="17"/>
       <c r="L1706" s="17"/>
       <c r="M1706" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="N1706" s="18" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="O1706" s="19"/>
       <c r="P1706" s="19"/>
@@ -62026,7 +62026,7 @@
         <v>11489</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="C1707" s="15"/>
       <c r="D1707" s="16"/>
@@ -62039,10 +62039,10 @@
       <c r="K1707" s="17"/>
       <c r="L1707" s="17"/>
       <c r="M1707" s="18" t="s">
-        <v>3952</v>
+        <v>3951</v>
       </c>
       <c r="N1707" s="18" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="O1707" s="19"/>
       <c r="P1707" s="19"/>
@@ -62053,7 +62053,7 @@
         <v>11490</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C1708" s="15"/>
       <c r="D1708" s="16"/>
@@ -62068,10 +62068,10 @@
       <c r="K1708" s="17"/>
       <c r="L1708" s="17"/>
       <c r="M1708" s="18" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="N1708" s="18" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="O1708" s="19"/>
       <c r="P1708" s="19"/>
@@ -62082,7 +62082,7 @@
         <v>11491</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="C1709" s="15"/>
       <c r="D1709" s="16"/>
@@ -62095,10 +62095,10 @@
       <c r="K1709" s="17"/>
       <c r="L1709" s="17"/>
       <c r="M1709" s="18" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="N1709" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1709" s="19"/>
       <c r="P1709" s="19"/>
@@ -62109,7 +62109,7 @@
         <v>11492</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="C1710" s="15"/>
       <c r="D1710" s="16"/>
@@ -62125,7 +62125,7 @@
         <v>1998</v>
       </c>
       <c r="N1710" s="18" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="O1710" s="19"/>
       <c r="P1710" s="19"/>
@@ -62136,7 +62136,7 @@
         <v>11493</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="C1711" s="15"/>
       <c r="D1711" s="16"/>
@@ -62149,10 +62149,10 @@
       <c r="K1711" s="17"/>
       <c r="L1711" s="17"/>
       <c r="M1711" s="18" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="N1711" s="18" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="O1711" s="19"/>
       <c r="P1711" s="19"/>
@@ -62163,7 +62163,7 @@
         <v>11494</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C1712" s="15"/>
       <c r="D1712" s="16"/>
@@ -62176,10 +62176,10 @@
       <c r="K1712" s="17"/>
       <c r="L1712" s="17"/>
       <c r="M1712" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="N1712" s="18" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="O1712" s="19"/>
       <c r="P1712" s="19"/>
@@ -62190,7 +62190,7 @@
         <v>11495</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3939</v>
+        <v>3938</v>
       </c>
       <c r="C1713" s="15"/>
       <c r="D1713" s="16"/>
@@ -62203,10 +62203,10 @@
       <c r="K1713" s="17"/>
       <c r="L1713" s="17"/>
       <c r="M1713" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="N1713" s="18" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="O1713" s="19"/>
       <c r="P1713" s="19"/>
@@ -62217,7 +62217,7 @@
         <v>11496</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3942</v>
+        <v>3941</v>
       </c>
       <c r="C1714" s="15"/>
       <c r="D1714" s="16"/>
@@ -62230,10 +62230,10 @@
       <c r="K1714" s="17"/>
       <c r="L1714" s="17"/>
       <c r="M1714" s="18" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="N1714" s="18" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="O1714" s="19"/>
       <c r="P1714" s="19"/>
@@ -62244,7 +62244,7 @@
         <v>11497</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3943</v>
+        <v>3942</v>
       </c>
       <c r="C1715" s="15"/>
       <c r="D1715" s="16"/>
@@ -62258,7 +62258,7 @@
       <c r="L1715" s="17"/>
       <c r="M1715" s="18"/>
       <c r="N1715" s="18" t="s">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="O1715" s="19"/>
       <c r="P1715" s="19"/>
@@ -62269,7 +62269,7 @@
         <v>11498</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3944</v>
+        <v>3943</v>
       </c>
       <c r="C1716" s="15"/>
       <c r="D1716" s="16"/>
@@ -62282,10 +62282,10 @@
       <c r="K1716" s="17"/>
       <c r="L1716" s="17"/>
       <c r="M1716" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="N1716" s="18" t="s">
-        <v>3941</v>
+        <v>3940</v>
       </c>
       <c r="O1716" s="19"/>
       <c r="P1716" s="19"/>
@@ -62296,7 +62296,7 @@
         <v>11499</v>
       </c>
       <c r="B1717" s="15" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="C1717" s="15"/>
       <c r="D1717" s="16"/>
@@ -62309,10 +62309,10 @@
       <c r="K1717" s="17"/>
       <c r="L1717" s="17"/>
       <c r="M1717" s="18" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="N1717" s="18" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="O1717" s="19"/>
       <c r="P1717" s="19"/>
@@ -62323,7 +62323,7 @@
         <v>11500</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3946</v>
+        <v>3945</v>
       </c>
       <c r="C1718" s="15"/>
       <c r="D1718" s="16"/>
@@ -62338,10 +62338,10 @@
       <c r="K1718" s="17"/>
       <c r="L1718" s="17"/>
       <c r="M1718" s="18" t="s">
-        <v>3948</v>
+        <v>3947</v>
       </c>
       <c r="N1718" s="18" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="O1718" s="19"/>
       <c r="P1718" s="19"/>
@@ -62352,7 +62352,7 @@
         <v>11501</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3950</v>
+        <v>3949</v>
       </c>
       <c r="C1719" s="15"/>
       <c r="D1719" s="16"/>
@@ -62367,10 +62367,10 @@
       <c r="K1719" s="17"/>
       <c r="L1719" s="17"/>
       <c r="M1719" s="18" t="s">
-        <v>3949</v>
+        <v>3948</v>
       </c>
       <c r="N1719" s="18" t="s">
-        <v>3947</v>
+        <v>3946</v>
       </c>
       <c r="O1719" s="19"/>
       <c r="P1719" s="19"/>
@@ -62381,7 +62381,7 @@
         <v>11502</v>
       </c>
       <c r="B1720" s="27" t="s">
-        <v>3951</v>
+        <v>3950</v>
       </c>
       <c r="C1720" s="15"/>
       <c r="D1720" s="16"/>
@@ -62394,10 +62394,10 @@
       <c r="K1720" s="17"/>
       <c r="L1720" s="17"/>
       <c r="M1720" s="18" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="N1720" s="18" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="O1720" s="19"/>
       <c r="P1720" s="19"/>
@@ -62408,7 +62408,7 @@
         <v>11503</v>
       </c>
       <c r="B1721" s="27" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="C1721" s="15"/>
       <c r="D1721" s="16"/>
@@ -62423,7 +62423,7 @@
       <c r="K1721" s="17"/>
       <c r="L1721" s="17"/>
       <c r="M1721" s="18" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="N1721" s="18"/>
       <c r="O1721" s="19"/>
@@ -62435,7 +62435,7 @@
         <v>11504</v>
       </c>
       <c r="B1722" s="15" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="C1722" s="15">
         <v>3</v>

--- a/data/en-us/events.xlsx
+++ b/data/en-us/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FA705D-6F08-45F6-8686-EDFB4EBB18E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383E23A-D4B3-4F3F-BB39-AA6519404144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="3955">
   <si>
     <t>$id</t>
   </si>
@@ -13141,10 +13141,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C1696" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G1653" sqref="G1653"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13353,7 +13353,9 @@
       <c r="M5" s="18" t="s">
         <v>3870</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="18" t="s">
+        <v>3363</v>
+      </c>
       <c r="O5" s="19" t="s">
         <v>3871</v>
       </c>

--- a/data/en-us/events.xlsx
+++ b/data/en-us/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9383E23A-D4B3-4F3F-BB39-AA6519404144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA554C-0209-42C9-84E0-FA7E9653105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12182,23 +12182,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>(TLT?[2024])&amp;(EVT?[10679,10680,10681])&amp;(EVT![11504]):11504</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋卡【死者苏生】发动，你被复活了。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>(TLT?[1147])&amp;(EVT![20000]):20000</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>因为和恶魔进行过交易，你复活了。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(TLT?[1148])&amp;(EVT![20001]):20001</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12540,6 +12528,18 @@
   </si>
   <si>
     <t>EVT?[10439]</t>
+  </si>
+  <si>
+    <t>(AGE![500])&amp;(TLT?[1148])&amp;(EVT![20001]):20001</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE![500])&amp;(TLT?[1147])&amp;(EVT![20000]):20000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AGE![500])&amp;(TLT?[2024])&amp;(EVT?[10679,10680,10681])&amp;(EVT![11504]):11504</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13141,10 +13141,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C477" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="A494" sqref="A494:XFD494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13295,13 +13295,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="19" t="s">
-        <v>3868</v>
+        <v>3952</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>3866</v>
+        <v>3953</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>3864</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -13309,7 +13309,7 @@
         <v>20000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -13338,7 +13338,7 @@
         <v>20002</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -13351,13 +13351,13 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>3363</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="20"/>
@@ -13367,7 +13367,7 @@
         <v>20001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="C6" s="15">
         <v>3</v>
@@ -27514,7 +27514,7 @@
       <c r="K484" s="17"/>
       <c r="L484" s="17"/>
       <c r="M484" s="18" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
       <c r="N484" s="18" t="s">
         <v>960</v>
@@ -27957,7 +27957,7 @@
         <v>10366</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="C498" s="15">
         <v>1</v>
@@ -27972,19 +27972,19 @@
       <c r="K498" s="17"/>
       <c r="L498" s="17"/>
       <c r="M498" s="18" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="N498" s="18" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="O498" s="19" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="P498" s="19" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="Q498" s="20" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="499" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27992,7 +27992,7 @@
         <v>20366</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
       <c r="C499" s="15">
         <v>2</v>
@@ -28018,7 +28018,7 @@
       <c r="N499" s="18"/>
       <c r="O499" s="19"/>
       <c r="P499" s="19" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="Q499" s="20"/>
     </row>
@@ -28027,7 +28027,7 @@
         <v>20365</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="C500" s="15">
         <v>1</v>
@@ -28053,7 +28053,7 @@
       <c r="N500" s="18"/>
       <c r="O500" s="19"/>
       <c r="P500" s="19" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="Q500" s="20"/>
     </row>
@@ -28062,7 +28062,7 @@
         <v>20364</v>
       </c>
       <c r="B501" s="15" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="C501" s="15"/>
       <c r="D501" s="16"/>
@@ -28082,7 +28082,7 @@
       <c r="N501" s="18"/>
       <c r="O501" s="19"/>
       <c r="P501" s="19" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="Q501" s="20"/>
     </row>
@@ -28091,7 +28091,7 @@
         <v>20363</v>
       </c>
       <c r="B502" s="15" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
       <c r="C502" s="15"/>
       <c r="D502" s="16"/>
@@ -28108,13 +28108,13 @@
       <c r="M502" s="18"/>
       <c r="N502" s="18"/>
       <c r="O502" s="19" t="s">
+        <v>3880</v>
+      </c>
+      <c r="P502" s="19" t="s">
         <v>3883</v>
       </c>
-      <c r="P502" s="19" t="s">
-        <v>3886</v>
-      </c>
       <c r="Q502" s="20" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
     </row>
     <row r="503" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28122,7 +28122,7 @@
         <v>20362</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="C503" s="15">
         <v>1</v>
@@ -28151,7 +28151,7 @@
         <v>20361</v>
       </c>
       <c r="B504" s="15" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="C504" s="15"/>
       <c r="D504" s="16"/>
@@ -30128,7 +30128,7 @@
         <v>10414</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C567" s="15"/>
       <c r="D567" s="16"/>
@@ -30182,7 +30182,7 @@
         <v>10416</v>
       </c>
       <c r="B569" s="15" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="C569" s="15"/>
       <c r="D569" s="16"/>
@@ -30263,7 +30263,7 @@
         <v>10418</v>
       </c>
       <c r="B572" s="15" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="C572" s="15"/>
       <c r="D572" s="16"/>
@@ -30290,7 +30290,7 @@
         <v>10419</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="C573" s="15"/>
       <c r="D573" s="16"/>
@@ -30317,7 +30317,7 @@
         <v>10420</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="C574" s="15"/>
       <c r="D574" s="16"/>
@@ -30483,7 +30483,7 @@
         <v>20423</v>
       </c>
       <c r="B580" s="15" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="C580" s="15"/>
       <c r="D580" s="16"/>
@@ -30728,7 +30728,7 @@
         <v>10431</v>
       </c>
       <c r="B589" s="15" t="s">
-        <v>3895</v>
+        <v>3892</v>
       </c>
       <c r="C589" s="15"/>
       <c r="D589" s="16"/>
@@ -30755,7 +30755,7 @@
         <v>10432</v>
       </c>
       <c r="B590" s="15" t="s">
-        <v>3896</v>
+        <v>3893</v>
       </c>
       <c r="C590" s="15"/>
       <c r="D590" s="16"/>
@@ -30892,7 +30892,7 @@
         <v>20436</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>3897</v>
+        <v>3894</v>
       </c>
       <c r="C595" s="15"/>
       <c r="D595" s="16"/>
@@ -30971,7 +30971,7 @@
         <v>10438</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="C598" s="15"/>
       <c r="D598" s="16"/>
@@ -31014,7 +31014,7 @@
         <v>60</v>
       </c>
       <c r="N599" s="18" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="O599" s="19"/>
       <c r="P599" s="19"/>
@@ -31054,7 +31054,7 @@
         <v>10441</v>
       </c>
       <c r="B601" s="15" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="C601" s="15"/>
       <c r="D601" s="16"/>
@@ -39261,7 +39261,7 @@
         <v>10706</v>
       </c>
       <c r="B894" s="15" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="C894" s="15"/>
       <c r="D894" s="16"/>
@@ -41086,7 +41086,7 @@
         <v>20770</v>
       </c>
       <c r="B959" s="15" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
       <c r="C959" s="15">
         <v>2</v>
@@ -41173,7 +41173,7 @@
         <v>10772</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="C962" s="15">
         <v>2</v>
@@ -41202,7 +41202,7 @@
         <v>10773</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="C963" s="15">
         <v>2</v>
@@ -41347,7 +41347,7 @@
         <v>10778</v>
       </c>
       <c r="B968" s="15" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="C968" s="15">
         <v>2</v>
@@ -60126,7 +60126,7 @@
         <v>11424</v>
       </c>
       <c r="B1639" s="15" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="C1639" s="15"/>
       <c r="D1639" s="16"/>
@@ -60142,7 +60142,7 @@
         <v>1998</v>
       </c>
       <c r="N1639" s="18" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="O1639" s="19"/>
       <c r="P1639" s="19"/>
@@ -60153,7 +60153,7 @@
         <v>11425</v>
       </c>
       <c r="B1640" s="15" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="C1640" s="15"/>
       <c r="D1640" s="16"/>
@@ -60169,7 +60169,7 @@
         <v>1998</v>
       </c>
       <c r="N1640" s="18" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="O1640" s="19"/>
       <c r="P1640" s="19"/>
@@ -60180,7 +60180,7 @@
         <v>11426</v>
       </c>
       <c r="B1641" s="15" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="C1641" s="15"/>
       <c r="D1641" s="16"/>
@@ -60196,7 +60196,7 @@
         <v>1998</v>
       </c>
       <c r="N1641" s="18" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="O1641" s="19"/>
       <c r="P1641" s="19"/>
@@ -60207,7 +60207,7 @@
         <v>11427</v>
       </c>
       <c r="B1642" s="15" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="C1642" s="15"/>
       <c r="D1642" s="16" t="s">
@@ -60292,7 +60292,7 @@
         <v>11430</v>
       </c>
       <c r="B1645" s="15" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="C1645" s="15"/>
       <c r="D1645" s="16"/>
@@ -60319,7 +60319,7 @@
         <v>11431</v>
       </c>
       <c r="B1646" s="15" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="C1646" s="15"/>
       <c r="D1646" s="16"/>
@@ -60362,7 +60362,7 @@
         <v>1998</v>
       </c>
       <c r="N1647" s="18" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="O1647" s="19"/>
       <c r="P1647" s="19"/>
@@ -60373,7 +60373,7 @@
         <v>11433</v>
       </c>
       <c r="B1648" s="15" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="C1648" s="15"/>
       <c r="D1648" s="16"/>
@@ -60427,7 +60427,7 @@
         <v>11435</v>
       </c>
       <c r="B1650" s="15" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="C1650" s="15"/>
       <c r="D1650" s="16"/>
@@ -61554,7 +61554,7 @@
         <v>11471</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="C1689" s="15"/>
       <c r="D1689" s="16"/>
@@ -61581,7 +61581,7 @@
         <v>11472</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="C1690" s="15"/>
       <c r="D1690" s="16"/>
@@ -61608,7 +61608,7 @@
         <v>11473</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
       <c r="C1691" s="15"/>
       <c r="D1691" s="16"/>
@@ -61635,7 +61635,7 @@
         <v>11474</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="C1692" s="15"/>
       <c r="D1692" s="16"/>
@@ -61660,7 +61660,7 @@
         <v>11475</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="C1693" s="15"/>
       <c r="D1693" s="16"/>
@@ -61687,7 +61687,7 @@
         <v>11476</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
       <c r="C1694" s="15"/>
       <c r="D1694" s="16"/>
@@ -61712,7 +61712,7 @@
         <v>11477</v>
       </c>
       <c r="B1695" s="15" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="C1695" s="15"/>
       <c r="D1695" s="16"/>
@@ -61725,7 +61725,7 @@
       <c r="K1695" s="17"/>
       <c r="L1695" s="17"/>
       <c r="M1695" s="18" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
       <c r="N1695" s="18" t="s">
         <v>3530</v>
@@ -61739,7 +61739,7 @@
         <v>11478</v>
       </c>
       <c r="B1696" s="15" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="C1696" s="15"/>
       <c r="D1696" s="16"/>
@@ -61766,7 +61766,7 @@
         <v>11479</v>
       </c>
       <c r="B1697" s="15" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
       <c r="C1697" s="15"/>
       <c r="D1697" s="16"/>
@@ -61818,7 +61818,7 @@
         <v>11481</v>
       </c>
       <c r="B1699" s="15" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="C1699" s="15"/>
       <c r="D1699" s="16"/>
@@ -61845,7 +61845,7 @@
         <v>11482</v>
       </c>
       <c r="B1700" s="15" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="C1700" s="15"/>
       <c r="D1700" s="16"/>
@@ -61858,7 +61858,7 @@
       <c r="K1700" s="17"/>
       <c r="L1700" s="17"/>
       <c r="M1700" s="18" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
       <c r="N1700" s="18" t="s">
         <v>3573</v>
@@ -61872,7 +61872,7 @@
         <v>11483</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
       <c r="C1701" s="15"/>
       <c r="D1701" s="16"/>
@@ -61899,7 +61899,7 @@
         <v>11484</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="C1702" s="15"/>
       <c r="D1702" s="16"/>
@@ -61949,7 +61949,7 @@
         <v>11486</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="C1704" s="15"/>
       <c r="D1704" s="16"/>
@@ -61976,7 +61976,7 @@
         <v>11487</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="C1705" s="15"/>
       <c r="D1705" s="16"/>
@@ -62001,7 +62001,7 @@
         <v>11488</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="C1706" s="15"/>
       <c r="D1706" s="16"/>
@@ -62028,7 +62028,7 @@
         <v>11489</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="C1707" s="15"/>
       <c r="D1707" s="16"/>
@@ -62041,7 +62041,7 @@
       <c r="K1707" s="17"/>
       <c r="L1707" s="17"/>
       <c r="M1707" s="18" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="N1707" s="18" t="s">
         <v>3561</v>
@@ -62055,7 +62055,7 @@
         <v>11490</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="C1708" s="15"/>
       <c r="D1708" s="16"/>
@@ -62084,7 +62084,7 @@
         <v>11491</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="C1709" s="15"/>
       <c r="D1709" s="16"/>
@@ -62111,7 +62111,7 @@
         <v>11492</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="C1710" s="15"/>
       <c r="D1710" s="16"/>
@@ -62138,7 +62138,7 @@
         <v>11493</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="C1711" s="15"/>
       <c r="D1711" s="16"/>
@@ -62165,7 +62165,7 @@
         <v>11494</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="C1712" s="15"/>
       <c r="D1712" s="16"/>
@@ -62192,7 +62192,7 @@
         <v>11495</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="C1713" s="15"/>
       <c r="D1713" s="16"/>
@@ -62219,7 +62219,7 @@
         <v>11496</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="C1714" s="15"/>
       <c r="D1714" s="16"/>
@@ -62246,7 +62246,7 @@
         <v>11497</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="C1715" s="15"/>
       <c r="D1715" s="16"/>
@@ -62260,7 +62260,7 @@
       <c r="L1715" s="17"/>
       <c r="M1715" s="18"/>
       <c r="N1715" s="18" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="O1715" s="19"/>
       <c r="P1715" s="19"/>
@@ -62271,7 +62271,7 @@
         <v>11498</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="C1716" s="15"/>
       <c r="D1716" s="16"/>
@@ -62287,7 +62287,7 @@
         <v>3547</v>
       </c>
       <c r="N1716" s="18" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="O1716" s="19"/>
       <c r="P1716" s="19"/>
@@ -62325,7 +62325,7 @@
         <v>11500</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C1718" s="15"/>
       <c r="D1718" s="16"/>
@@ -62340,10 +62340,10 @@
       <c r="K1718" s="17"/>
       <c r="L1718" s="17"/>
       <c r="M1718" s="18" t="s">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="N1718" s="18" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
       <c r="O1718" s="19"/>
       <c r="P1718" s="19"/>
@@ -62354,7 +62354,7 @@
         <v>11501</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="C1719" s="15"/>
       <c r="D1719" s="16"/>
@@ -62369,10 +62369,10 @@
       <c r="K1719" s="17"/>
       <c r="L1719" s="17"/>
       <c r="M1719" s="18" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="N1719" s="18" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
       <c r="O1719" s="19"/>
       <c r="P1719" s="19"/>
@@ -62383,7 +62383,7 @@
         <v>11502</v>
       </c>
       <c r="B1720" s="27" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="C1720" s="15"/>
       <c r="D1720" s="16"/>
